--- a/sales_origin.xlsx
+++ b/sales_origin.xlsx
@@ -14,32 +14,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
   <si>
     <t>PO Number</t>
   </si>
   <si>
+    <t>Retailers PO</t>
+  </si>
+  <si>
+    <t>Payment Terms Net Days</t>
+  </si>
+  <si>
+    <t>Ship Dates</t>
+  </si>
+  <si>
+    <t>Buyers Catalog or Stock Keeping #</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Qty Ordered</t>
+  </si>
+  <si>
+    <t>PO Date</t>
+  </si>
+  <si>
+    <t>Contact Email</t>
+  </si>
+  <si>
+    <t>Buying Party Name</t>
+  </si>
+  <si>
+    <t>Buying Party Location</t>
+  </si>
+  <si>
+    <t>Buying Party Address 1</t>
+  </si>
+  <si>
+    <t>Buying Party City</t>
+  </si>
+  <si>
+    <t>Bill To Address 1</t>
+  </si>
+  <si>
+    <t>Bill To Address 2</t>
+  </si>
+  <si>
+    <t>Bill To City</t>
+  </si>
+  <si>
     <t>Release Number</t>
   </si>
   <si>
-    <t>PO Date</t>
-  </si>
-  <si>
     <t>Dept #</t>
   </si>
   <si>
-    <t>Retailers PO</t>
-  </si>
-  <si>
     <t>Requested Delivery Date</t>
   </si>
   <si>
     <t>Delivery Dates</t>
   </si>
   <si>
-    <t>Ship Dates</t>
-  </si>
-  <si>
     <t>Cancel Date</t>
   </si>
   <si>
@@ -55,18 +94,9 @@
     <t>PO Line #</t>
   </si>
   <si>
-    <t>Qty Ordered</t>
-  </si>
-  <si>
     <t>Unit of Measure</t>
   </si>
   <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>Buyers Catalog or Stock Keeping #</t>
-  </si>
-  <si>
     <t>UPC/EAN</t>
   </si>
   <si>
@@ -115,9 +145,6 @@
     <t>Contract Number</t>
   </si>
   <si>
-    <t>Currency</t>
-  </si>
-  <si>
     <t>Ship Status</t>
   </si>
   <si>
@@ -163,9 +190,6 @@
     <t>Payment Terms Net Due Date</t>
   </si>
   <si>
-    <t>Payment Terms Net Days</t>
-  </si>
-  <si>
     <t>Payment Terms Disc Amt</t>
   </si>
   <si>
@@ -178,9 +202,6 @@
     <t>Contact Fax</t>
   </si>
   <si>
-    <t>Contact Email</t>
-  </si>
-  <si>
     <t>Allow/Charge Type</t>
   </si>
   <si>
@@ -229,15 +250,6 @@
     <t>Bill To Name</t>
   </si>
   <si>
-    <t>Bill To Address 1</t>
-  </si>
-  <si>
-    <t>Bill To Address 2</t>
-  </si>
-  <si>
-    <t>Bill To City</t>
-  </si>
-  <si>
     <t>Bill To State</t>
   </si>
   <si>
@@ -250,21 +262,9 @@
     <t>Bill To Contact</t>
   </si>
   <si>
-    <t>Buying Party Name</t>
-  </si>
-  <si>
-    <t>Buying Party Location</t>
-  </si>
-  <si>
-    <t>Buying Party Address 1</t>
-  </si>
-  <si>
     <t>Buying Party Address 2</t>
   </si>
   <si>
-    <t>Buying Party City</t>
-  </si>
-  <si>
     <t>Buying Party State</t>
   </si>
   <si>
@@ -373,157 +373,52 @@
     <t>Buyer Part Number</t>
   </si>
   <si>
-    <t>36779703</t>
-  </si>
-  <si>
-    <t>09/19/2023</t>
-  </si>
-  <si>
-    <t>36779703.0</t>
-  </si>
-  <si>
-    <t>10/02/2023</t>
-  </si>
-  <si>
-    <t>10/06/2023</t>
-  </si>
-  <si>
-    <t>See www.vendorconnect.com</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>Each</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>677638</t>
-  </si>
-  <si>
-    <t>677639</t>
-  </si>
-  <si>
-    <t>677640</t>
-  </si>
-  <si>
-    <t>2338</t>
-  </si>
-  <si>
-    <t>2351</t>
-  </si>
-  <si>
-    <t>4420</t>
-  </si>
-  <si>
-    <t>WEATHER SCIENCE IN A BAG</t>
-  </si>
-  <si>
-    <t>LAB IN A BAG:  GEARS &amp; GADGETS</t>
-  </si>
-  <si>
-    <t>TEST TUBE ADVENTURES</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>EA</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Original</t>
-  </si>
-  <si>
-    <t>Stand-alone Order</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Collect Destination (Shipping)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>NET 45 DAY ROG</t>
-  </si>
-  <si>
-    <t>801-583-1846</t>
-  </si>
-  <si>
-    <t>DC:2 CENTRALIA</t>
-  </si>
-  <si>
-    <t>CENTRALIA DISTRIBUTION CENTER</t>
-  </si>
-  <si>
-    <t>208 HOSS ROAD</t>
-  </si>
-  <si>
-    <t>CENTRALIA</t>
-  </si>
-  <si>
-    <t>WA</t>
-  </si>
-  <si>
-    <t>98531.0</t>
-  </si>
-  <si>
-    <t>Michaels Stores Procurement Co Inc.</t>
-  </si>
-  <si>
-    <t>P.O. Box 619010</t>
-  </si>
-  <si>
-    <t>DFW Airport</t>
-  </si>
-  <si>
-    <t>Dallas</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>75261.0</t>
-  </si>
-  <si>
-    <t>THE MICHAELS COMPANIES AND SUBSIDIARIES</t>
-  </si>
-  <si>
-    <t>813268016115</t>
-  </si>
-  <si>
-    <t>813268017075</t>
-  </si>
-  <si>
-    <t>851724001718</t>
-  </si>
-  <si>
-    <t>12592.0</t>
+    <t>Carrier Details Special Handling</t>
+  </si>
+  <si>
+    <t>Restrictions/Conditions</t>
+  </si>
+  <si>
+    <t>91086586</t>
+  </si>
+  <si>
+    <t>Net 30</t>
+  </si>
+  <si>
+    <t>16/12/2023</t>
+  </si>
+  <si>
+    <t>541671</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>7.34</t>
+  </si>
+  <si>
+    <t>01/08/2023</t>
+  </si>
+  <si>
+    <t>hira.kotecha@poundland.co.uk</t>
+  </si>
+  <si>
+    <t>Poundland Ltd</t>
+  </si>
+  <si>
+    <t>Pattison House,</t>
+  </si>
+  <si>
+    <t>Midland Road</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Harlow – UK Pool</t>
+  </si>
+  <si>
+    <t>4th Avenue via Elizabeth Way</t>
   </si>
 </sst>
 </file>
@@ -881,13 +776,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DP5"/>
+  <dimension ref="A1:DR3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:120">
+    <row r="1" spans="1:122">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1245,223 +1140,72 @@
       <c r="DP1" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="2" spans="1:120">
+    <row r="2" spans="1:122">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" t="s">
         <v>122</v>
       </c>
+      <c r="E2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
       <c r="J2" t="s">
-        <v>123</v>
+        <v>127</v>
+      </c>
+      <c r="K2" t="s">
+        <v>128</v>
       </c>
       <c r="L2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>150</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>151</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>152</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>153</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>154</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>155</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>156</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>157</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>158</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>162</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>163</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>164</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>165</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>169</v>
+        <v>130</v>
+      </c>
+      <c r="N2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O2" t="s">
+        <v>132</v>
+      </c>
+      <c r="P2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:120">
+    <row r="3" spans="1:122">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
-      </c>
-      <c r="O3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" t="s">
         <v>126</v>
       </c>
-      <c r="P3" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>130</v>
-      </c>
-      <c r="R3" t="s">
-        <v>132</v>
-      </c>
-      <c r="T3" t="s">
-        <v>135</v>
-      </c>
-      <c r="V3" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>144</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:120">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>119</v>
-      </c>
-      <c r="O4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>131</v>
-      </c>
-      <c r="R4" t="s">
-        <v>133</v>
-      </c>
-      <c r="T4" t="s">
-        <v>136</v>
-      </c>
-      <c r="V4" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>144</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:120">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>119</v>
-      </c>
-      <c r="O5" t="s">
-        <v>128</v>
-      </c>
-      <c r="P5" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>130</v>
-      </c>
-      <c r="R5" t="s">
-        <v>134</v>
-      </c>
-      <c r="T5" t="s">
-        <v>137</v>
-      </c>
-      <c r="V5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>144</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>168</v>
+      <c r="I3">
+        <v>1270</v>
       </c>
     </row>
   </sheetData>

--- a/sales_origin.xlsx
+++ b/sales_origin.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ3"/>
+  <dimension ref="A1:DQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1030,28 +1030,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>91086586</t>
+          <t>36779703</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>09/19/2023</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36779703.0</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>10/02/2023</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>See www.vendorconnect.com</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -1069,13 +1085,25 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Stand-alone Order</t>
+        </is>
+      </c>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr"/>
@@ -1085,28 +1113,40 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>Collect Destination (Shipping)</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>Net 30</t>
-        </is>
-      </c>
+      <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>NET 45 DAY ROG</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>801-583-1846</t>
+        </is>
+      </c>
       <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>hira.kotecha@poundland.co.uk</t>
-        </is>
-      </c>
+      <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="inlineStr"/>
       <c r="BF2" t="inlineStr"/>
@@ -1114,51 +1154,79 @@
       <c r="BH2" t="inlineStr"/>
       <c r="BI2" t="inlineStr"/>
       <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
-      <c r="BO2" t="inlineStr"/>
-      <c r="BP2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>DC:2 CENTRALIA</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>CENTRALIA DISTRIBUTION CENTER</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>208 HOSS ROAD</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>CENTRALIA</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>98531.0</t>
+        </is>
+      </c>
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="inlineStr"/>
-      <c r="BS2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>Michaels Stores Procurement Co Inc.</t>
+        </is>
+      </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>Harlow – UK Pool</t>
+          <t>P.O. Box 619010</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>4th Avenue via Elizabeth Way</t>
-        </is>
-      </c>
-      <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="inlineStr"/>
-      <c r="BX2" t="inlineStr"/>
+          <t>DFW Airport</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>75261.0</t>
+        </is>
+      </c>
       <c r="BY2" t="inlineStr"/>
       <c r="BZ2" t="inlineStr"/>
       <c r="CA2" t="inlineStr">
         <is>
-          <t>Poundland Ltd</t>
-        </is>
-      </c>
-      <c r="CB2" t="inlineStr">
-        <is>
-          <t>Pattison House,</t>
-        </is>
-      </c>
-      <c r="CC2" t="inlineStr">
-        <is>
-          <t>Midland Road</t>
-        </is>
-      </c>
+          <t>THE MICHAELS COMPANIES AND SUBSIDIARIES</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
       <c r="CD2" t="inlineStr"/>
-      <c r="CE2" t="inlineStr">
-        <is>
-          <t>Walsall</t>
-        </is>
-      </c>
+      <c r="CE2" t="inlineStr"/>
       <c r="CF2" t="inlineStr"/>
       <c r="CG2" t="inlineStr"/>
       <c r="CH2" t="inlineStr"/>
@@ -1172,7 +1240,11 @@
       <c r="CP2" t="inlineStr"/>
       <c r="CQ2" t="inlineStr"/>
       <c r="CR2" t="inlineStr"/>
-      <c r="CS2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>12592.0</t>
+        </is>
+      </c>
       <c r="CT2" t="inlineStr"/>
       <c r="CU2" t="inlineStr"/>
       <c r="CV2" t="inlineStr"/>
@@ -1201,17 +1273,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>91086586</t>
+          <t>36779703</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91086586</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -1220,33 +1288,63 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>1270</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>7.34</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>541671</t>
+          <t>677638</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2338</t>
+        </is>
+      </c>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>WEATHER SCIENCE IN A BAG</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
@@ -1312,7 +1410,11 @@
       <c r="CO3" t="inlineStr"/>
       <c r="CP3" t="inlineStr"/>
       <c r="CQ3" t="inlineStr"/>
-      <c r="CR3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr">
+        <is>
+          <t>813268016115</t>
+        </is>
+      </c>
       <c r="CS3" t="inlineStr"/>
       <c r="CT3" t="inlineStr"/>
       <c r="CU3" t="inlineStr"/>
@@ -1339,6 +1441,348 @@
       <c r="DP3" t="inlineStr"/>
       <c r="DQ3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>36779703</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>677639</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2351</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>LAB IN A BAG:  GEARS &amp; GADGETS</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
+      <c r="CH4" t="inlineStr"/>
+      <c r="CI4" t="inlineStr"/>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
+      <c r="CM4" t="inlineStr"/>
+      <c r="CN4" t="inlineStr"/>
+      <c r="CO4" t="inlineStr"/>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr">
+        <is>
+          <t>813268017075</t>
+        </is>
+      </c>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="inlineStr"/>
+      <c r="CZ4" t="inlineStr"/>
+      <c r="DA4" t="inlineStr"/>
+      <c r="DB4" t="inlineStr"/>
+      <c r="DC4" t="inlineStr"/>
+      <c r="DD4" t="inlineStr"/>
+      <c r="DE4" t="inlineStr"/>
+      <c r="DF4" t="inlineStr"/>
+      <c r="DG4" t="inlineStr"/>
+      <c r="DH4" t="inlineStr"/>
+      <c r="DI4" t="inlineStr"/>
+      <c r="DJ4" t="inlineStr"/>
+      <c r="DK4" t="inlineStr"/>
+      <c r="DL4" t="inlineStr"/>
+      <c r="DM4" t="inlineStr"/>
+      <c r="DN4" t="inlineStr"/>
+      <c r="DO4" t="inlineStr"/>
+      <c r="DP4" t="inlineStr"/>
+      <c r="DQ4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>36779703</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>677640</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4420</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>TEST TUBE ADVENTURES</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr"/>
+      <c r="CG5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr"/>
+      <c r="CI5" t="inlineStr"/>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="inlineStr"/>
+      <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr"/>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr">
+        <is>
+          <t>851724001718</t>
+        </is>
+      </c>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="inlineStr"/>
+      <c r="CZ5" t="inlineStr"/>
+      <c r="DA5" t="inlineStr"/>
+      <c r="DB5" t="inlineStr"/>
+      <c r="DC5" t="inlineStr"/>
+      <c r="DD5" t="inlineStr"/>
+      <c r="DE5" t="inlineStr"/>
+      <c r="DF5" t="inlineStr"/>
+      <c r="DG5" t="inlineStr"/>
+      <c r="DH5" t="inlineStr"/>
+      <c r="DI5" t="inlineStr"/>
+      <c r="DJ5" t="inlineStr"/>
+      <c r="DK5" t="inlineStr"/>
+      <c r="DL5" t="inlineStr"/>
+      <c r="DM5" t="inlineStr"/>
+      <c r="DN5" t="inlineStr"/>
+      <c r="DO5" t="inlineStr"/>
+      <c r="DP5" t="inlineStr"/>
+      <c r="DQ5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sales_origin.xlsx
+++ b/sales_origin.xlsx
@@ -14,32 +14,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="133">
   <si>
     <t>PO Number</t>
   </si>
   <si>
+    <t>Retailers PO</t>
+  </si>
+  <si>
+    <t>PO Date</t>
+  </si>
+  <si>
+    <t>Ship Dates</t>
+  </si>
+  <si>
+    <t>Qty Ordered</t>
+  </si>
+  <si>
+    <t>Unit of Measure</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Buyers Catalog or Stock Keeping #</t>
+  </si>
+  <si>
+    <t>UPC/EAN</t>
+  </si>
+  <si>
+    <t>Retail Price</t>
+  </si>
+  <si>
+    <t>Product/Item Description</t>
+  </si>
+  <si>
+    <t>PO Total Amount</t>
+  </si>
+  <si>
+    <t>PO Total Weight</t>
+  </si>
+  <si>
+    <t>Vendor Style</t>
+  </si>
+  <si>
+    <t>Notes/Comments</t>
+  </si>
+  <si>
     <t>Release Number</t>
   </si>
   <si>
-    <t>PO Date</t>
-  </si>
-  <si>
     <t>Dept #</t>
   </si>
   <si>
-    <t>Retailers PO</t>
-  </si>
-  <si>
     <t>Requested Delivery Date</t>
   </si>
   <si>
     <t>Delivery Dates</t>
   </si>
   <si>
-    <t>Ship Dates</t>
-  </si>
-  <si>
     <t>Cancel Date</t>
   </si>
   <si>
@@ -55,30 +88,6 @@
     <t>PO Line #</t>
   </si>
   <si>
-    <t>Qty Ordered</t>
-  </si>
-  <si>
-    <t>Unit of Measure</t>
-  </si>
-  <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>Buyers Catalog or Stock Keeping #</t>
-  </si>
-  <si>
-    <t>UPC/EAN</t>
-  </si>
-  <si>
-    <t>Vendor Style</t>
-  </si>
-  <si>
-    <t>Retail Price</t>
-  </si>
-  <si>
-    <t>Product/Item Description</t>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -280,9 +289,6 @@
     <t>Ultimate Location</t>
   </si>
   <si>
-    <t>Notes/Comments</t>
-  </si>
-  <si>
     <t>Ship To Additional Name</t>
   </si>
   <si>
@@ -304,9 +310,6 @@
     <t>GTIN</t>
   </si>
   <si>
-    <t>PO Total Amount</t>
-  </si>
-  <si>
     <t xml:space="preserve">PO Total Weight </t>
   </si>
   <si>
@@ -376,163 +379,44 @@
     <t>Carrier Details Special Handling</t>
   </si>
   <si>
-    <t>94793410</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>8/31/2023</t>
-  </si>
-  <si>
-    <t>LUMLEY CHRISTINE</t>
-  </si>
-  <si>
-    <t>12/11/2023</t>
-  </si>
-  <si>
-    <t>11/17/2023</t>
-  </si>
-  <si>
-    <t>11/24/2023</t>
-  </si>
-  <si>
-    <t>5127</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>Restrictions/Conditions</t>
+  </si>
+  <si>
+    <t>4506223305</t>
+  </si>
+  <si>
+    <t>2/7/2022</t>
+  </si>
+  <si>
+    <t>5/20/22</t>
+  </si>
+  <si>
+    <t>24000</t>
   </si>
   <si>
     <t>Each</t>
   </si>
   <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>4.89</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>810692720</t>
-  </si>
-  <si>
-    <t>810693086</t>
-  </si>
-  <si>
-    <t>810693146</t>
-  </si>
-  <si>
-    <t>810693208</t>
-  </si>
-  <si>
-    <t>654000000000</t>
-  </si>
-  <si>
-    <t>65090</t>
-  </si>
-  <si>
-    <t>65094</t>
-  </si>
-  <si>
-    <t>65093</t>
-  </si>
-  <si>
-    <t>65091</t>
-  </si>
-  <si>
-    <t>FRIENDSHIP BRACELET KIT</t>
-  </si>
-  <si>
-    <t>TATTOO KIT</t>
-  </si>
-  <si>
-    <t>HAIR EXTENSION KIT</t>
-  </si>
-  <si>
-    <t>ABC BRACELET MAKING KIT</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Replace</t>
-  </si>
-  <si>
-    <t>Stand-alone Order</t>
-  </si>
-  <si>
-    <t>731830.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location Number 5127 S: Detail Packing Slip N : Preticket X : Total Units 48 </t>
-  </si>
-  <si>
-    <t>Prepaid Charge Customer US PREPAID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>WT60</t>
-  </si>
-  <si>
-    <t>330-945-3422</t>
-  </si>
-  <si>
-    <t>BIG LOTS STORES - #5127</t>
-  </si>
-  <si>
-    <t>405 HOWE AVE.</t>
-  </si>
-  <si>
-    <t>CUYAHOGA FALLS</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>44221.0</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>4900 E Dublin Granville Rd</t>
-  </si>
-  <si>
-    <t>Columbus</t>
-  </si>
-  <si>
-    <t>43081.0</t>
-  </si>
-  <si>
-    <t>229.08</t>
+    <t>08-3108410</t>
+  </si>
+  <si>
+    <t>6 67888 51759 6</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>PLAYDOH AIR CLAY ACTIVITY SET</t>
+  </si>
+  <si>
+    <t>701805</t>
+  </si>
+  <si>
+    <t>SAMPLE APPROVAL REQUIRED4X PLAY DOH AIR CLAY SWEETS, 4X AIR CLAY KEY
+CHAINS ACCESSORIES, 4X AIR CLAY AND SCULPTINGRETAIL PRICE ON ART WORK AN
+SHIPPING MARKS (IF PRESENT)
+MUST MATCH THE RETAIL PRICE
+AS IT APPEARS HERE =&gt;&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -890,13 +774,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DQ6"/>
+  <dimension ref="A1:DS3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:121">
+    <row r="1" spans="1:123">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1257,288 +1141,69 @@
       <c r="DQ1" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="2" spans="1:121">
+    <row r="2" spans="1:123">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" t="s">
         <v>124</v>
       </c>
-      <c r="I2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J2" t="s">
-        <v>126</v>
-      </c>
-      <c r="M2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>162</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>163</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>164</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>165</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>166</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>167</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>168</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>162</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>163</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>169</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>170</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>166</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>168</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>172</v>
+      <c r="K2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2">
+        <v>33600</v>
+      </c>
+      <c r="N2">
+        <v>4910</v>
+      </c>
+      <c r="P2" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:121">
+    <row r="3" spans="1:123">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
-      </c>
-      <c r="N3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3">
+        <v>1.4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" t="s">
         <v>128</v>
       </c>
+      <c r="L3" t="s">
+        <v>130</v>
+      </c>
       <c r="O3" t="s">
-        <v>132</v>
-      </c>
-      <c r="P3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>134</v>
-      </c>
-      <c r="R3" t="s">
-        <v>137</v>
-      </c>
-      <c r="S3" t="s">
-        <v>141</v>
-      </c>
-      <c r="T3" t="s">
-        <v>142</v>
-      </c>
-      <c r="V3" t="s">
-        <v>146</v>
-      </c>
-      <c r="X3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:121">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>120</v>
-      </c>
-      <c r="N4" t="s">
-        <v>129</v>
-      </c>
-      <c r="O4" t="s">
-        <v>132</v>
-      </c>
-      <c r="P4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>135</v>
-      </c>
-      <c r="R4" t="s">
-        <v>138</v>
-      </c>
-      <c r="S4" t="s">
-        <v>141</v>
-      </c>
-      <c r="T4" t="s">
-        <v>143</v>
-      </c>
-      <c r="V4" t="s">
-        <v>147</v>
-      </c>
-      <c r="X4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:121">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>120</v>
-      </c>
-      <c r="N5" t="s">
-        <v>130</v>
-      </c>
-      <c r="O5" t="s">
-        <v>132</v>
-      </c>
-      <c r="P5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>134</v>
-      </c>
-      <c r="R5" t="s">
-        <v>139</v>
-      </c>
-      <c r="S5" t="s">
-        <v>141</v>
-      </c>
-      <c r="T5" t="s">
-        <v>144</v>
-      </c>
-      <c r="V5" t="s">
-        <v>148</v>
-      </c>
-      <c r="X5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:121">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>120</v>
-      </c>
-      <c r="N6" t="s">
         <v>131</v>
-      </c>
-      <c r="O6" t="s">
-        <v>132</v>
-      </c>
-      <c r="P6" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>136</v>
-      </c>
-      <c r="R6" t="s">
-        <v>140</v>
-      </c>
-      <c r="S6" t="s">
-        <v>141</v>
-      </c>
-      <c r="T6" t="s">
-        <v>145</v>
-      </c>
-      <c r="V6" t="s">
-        <v>149</v>
-      </c>
-      <c r="X6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/sales_origin.xlsx
+++ b/sales_origin.xlsx
@@ -1030,31 +1030,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORD00948851_01</t>
+          <t xml:space="preserve"> ORD00944971_01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17/05/2023</t>
+          <t xml:space="preserve"> 01.03.2023</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ORD00948851_01</t>
+          <t xml:space="preserve"> ORD00944971_01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15/07/2023</t>
+          <t>15.06.2023</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>29/07/2023</t>
+          <t>29.06.2023</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -1083,7 +1083,7 @@
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr"/>
@@ -1103,7 +1103,7 @@
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t xml:space="preserve"> 30</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
@@ -1146,8 +1146,7 @@
       <c r="CJ2" t="inlineStr"/>
       <c r="CK2" t="inlineStr">
         <is>
-          <t>Supplier name:  CK BRANDS LIMITED
-Supplier ID:  D012594</t>
+          <t>Supplier name:: CK BRANDS LIMITED;Supplier ID:: D012594</t>
         </is>
       </c>
       <c r="CL2" t="inlineStr"/>
@@ -1158,7 +1157,7 @@
       <c r="CQ2" t="inlineStr"/>
       <c r="CR2" t="inlineStr"/>
       <c r="CS2" t="n">
-        <v>4381.3</v>
+        <v>8390.4</v>
       </c>
       <c r="CT2" t="inlineStr"/>
       <c r="CU2" t="inlineStr"/>
@@ -1188,7 +1187,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORD00948851_01</t>
+          <t xml:space="preserve"> ORD00944971_01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -1196,7 +1195,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ORD00948851_01</t>
+          <t xml:space="preserve"> ORD00944971_01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -1211,23 +1210,23 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>5690</t>
+          <t>22080</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>264252</t>
+          <t>340136</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2201126425298</t>
+          <t>2200434013692</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
@@ -1239,7 +1238,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">

--- a/sales_origin.xlsx
+++ b/sales_origin.xlsx
@@ -1030,33 +1030,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ORD00944971_01</t>
+          <t>91086586</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01.03.2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ORD00944971_01</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15.06.2023</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>29.06.2023</t>
-        </is>
-      </c>
+          <t>16/12/2023</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -1083,7 +1075,7 @@
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr"/>
@@ -1103,14 +1095,18 @@
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30</t>
+          <t>Net 30</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>hira.kotecha@poundland.co.uk</t>
+        </is>
+      </c>
       <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="inlineStr"/>
       <c r="BF2" t="inlineStr"/>
@@ -1127,18 +1123,42 @@
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="inlineStr"/>
       <c r="BS2" t="inlineStr"/>
-      <c r="BT2" t="inlineStr"/>
-      <c r="BU2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>Harlow – UK Pool</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>4th Avenue via Elizabeth Way</t>
+        </is>
+      </c>
       <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="inlineStr"/>
       <c r="BX2" t="inlineStr"/>
       <c r="BY2" t="inlineStr"/>
       <c r="BZ2" t="inlineStr"/>
-      <c r="CA2" t="inlineStr"/>
-      <c r="CB2" t="inlineStr"/>
-      <c r="CC2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t>Poundland Ltd</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>Pattison House,</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>Midland Road</t>
+        </is>
+      </c>
       <c r="CD2" t="inlineStr"/>
-      <c r="CE2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>Walsall</t>
+        </is>
+      </c>
       <c r="CF2" t="inlineStr"/>
       <c r="CG2" t="inlineStr"/>
       <c r="CH2" t="inlineStr"/>
@@ -1146,7 +1166,7 @@
       <c r="CJ2" t="inlineStr"/>
       <c r="CK2" t="inlineStr">
         <is>
-          <t>Supplier name:: CK BRANDS LIMITED;Supplier ID:: D012594</t>
+          <t>Comments: SS24TOY100</t>
         </is>
       </c>
       <c r="CL2" t="inlineStr"/>
@@ -1156,9 +1176,7 @@
       <c r="CP2" t="inlineStr"/>
       <c r="CQ2" t="inlineStr"/>
       <c r="CR2" t="inlineStr"/>
-      <c r="CS2" t="n">
-        <v>8390.4</v>
-      </c>
+      <c r="CS2" t="inlineStr"/>
       <c r="CT2" t="inlineStr"/>
       <c r="CU2" t="inlineStr"/>
       <c r="CV2" t="inlineStr"/>
@@ -1187,7 +1205,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ORD00944971_01</t>
+          <t>91086586</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -1195,7 +1213,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ORD00944971_01</t>
+          <t>91086586</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -1205,47 +1223,37 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>22080</t>
-        </is>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>1270</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>340136</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>2200434013692</t>
-        </is>
-      </c>
+          <t>541671</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>FASHION
+STYLING &amp;
+DRESSUP</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>

--- a/sales_origin.xlsx
+++ b/sales_origin.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ3"/>
+  <dimension ref="A1:DQ41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1028,30 +1028,40 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>91086586</t>
-        </is>
+      <c r="A2" t="n">
+        <v>2823120152</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2823120152</v>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>12/18/2023</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>28</v>
+      </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -1069,42 +1079,60 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Stand-alone Order</t>
+        </is>
+      </c>
       <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
+      <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AK2" t="n">
+        <v>3833</v>
+      </c>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>Net 30</t>
-        </is>
-      </c>
+      <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>hira.kotecha@poundland.co.uk</t>
+          <t>chris@creativekidsgroup.com.hk</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr"/>
@@ -1114,25 +1142,41 @@
       <c r="BH2" t="inlineStr"/>
       <c r="BI2" t="inlineStr"/>
       <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>Buc-ees 28 Bastrop TX</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>1700 Highway 71 East</t>
+        </is>
+      </c>
       <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
-      <c r="BO2" t="inlineStr"/>
-      <c r="BP2" t="inlineStr"/>
-      <c r="BQ2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>Bastrop</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>78602</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="BR2" t="inlineStr"/>
       <c r="BS2" t="inlineStr"/>
-      <c r="BT2" t="inlineStr">
-        <is>
-          <t>Harlow – UK Pool</t>
-        </is>
-      </c>
-      <c r="BU2" t="inlineStr">
-        <is>
-          <t>4th Avenue via Elizabeth Way</t>
-        </is>
-      </c>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
       <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="inlineStr"/>
       <c r="BX2" t="inlineStr"/>
@@ -1140,35 +1184,19 @@
       <c r="BZ2" t="inlineStr"/>
       <c r="CA2" t="inlineStr">
         <is>
-          <t>Poundland Ltd</t>
-        </is>
-      </c>
-      <c r="CB2" t="inlineStr">
-        <is>
-          <t>Pattison House,</t>
-        </is>
-      </c>
-      <c r="CC2" t="inlineStr">
-        <is>
-          <t>Midland Road</t>
-        </is>
-      </c>
+          <t>Buc-ees Ltd.</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
       <c r="CD2" t="inlineStr"/>
-      <c r="CE2" t="inlineStr">
-        <is>
-          <t>Walsall</t>
-        </is>
-      </c>
+      <c r="CE2" t="inlineStr"/>
       <c r="CF2" t="inlineStr"/>
       <c r="CG2" t="inlineStr"/>
       <c r="CH2" t="inlineStr"/>
       <c r="CI2" t="inlineStr"/>
       <c r="CJ2" t="inlineStr"/>
-      <c r="CK2" t="inlineStr">
-        <is>
-          <t>Comments: SS24TOY100</t>
-        </is>
-      </c>
+      <c r="CK2" t="inlineStr"/>
       <c r="CL2" t="inlineStr"/>
       <c r="CM2" t="inlineStr"/>
       <c r="CN2" t="inlineStr"/>
@@ -1176,7 +1204,9 @@
       <c r="CP2" t="inlineStr"/>
       <c r="CQ2" t="inlineStr"/>
       <c r="CR2" t="inlineStr"/>
-      <c r="CS2" t="inlineStr"/>
+      <c r="CS2" t="n">
+        <v>93.59999999999999</v>
+      </c>
       <c r="CT2" t="inlineStr"/>
       <c r="CU2" t="inlineStr"/>
       <c r="CV2" t="inlineStr"/>
@@ -1203,19 +1233,17 @@
       <c r="DQ2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>91086586</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2823120152</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91086586</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -1223,29 +1251,33 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
       <c r="N3" t="n">
-        <v>1270</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>541671</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>156422</v>
+      </c>
+      <c r="R3" t="n">
+        <v>653899622978</v>
+      </c>
+      <c r="S3" t="n">
+        <v>62297</v>
+      </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>FASHION
-STYLING &amp;
-DRESSUP</t>
+          <t>CK WATER ART CONSTRUCTION</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -1256,7 +1288,11 @@
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
@@ -1349,6 +1385,6392 @@
       <c r="DP3" t="inlineStr"/>
       <c r="DQ3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2823120152</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>24</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>156420</v>
+      </c>
+      <c r="R4" t="n">
+        <v>653899622954</v>
+      </c>
+      <c r="S4" t="n">
+        <v>62295</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>CK WATER ART PRINCESSES</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
+      <c r="CH4" t="inlineStr"/>
+      <c r="CI4" t="inlineStr"/>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
+      <c r="CM4" t="inlineStr"/>
+      <c r="CN4" t="inlineStr"/>
+      <c r="CO4" t="inlineStr"/>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="inlineStr"/>
+      <c r="CZ4" t="inlineStr"/>
+      <c r="DA4" t="inlineStr"/>
+      <c r="DB4" t="inlineStr"/>
+      <c r="DC4" t="inlineStr"/>
+      <c r="DD4" t="inlineStr"/>
+      <c r="DE4" t="inlineStr"/>
+      <c r="DF4" t="inlineStr"/>
+      <c r="DG4" t="inlineStr"/>
+      <c r="DH4" t="inlineStr"/>
+      <c r="DI4" t="inlineStr"/>
+      <c r="DJ4" t="inlineStr"/>
+      <c r="DK4" t="inlineStr"/>
+      <c r="DL4" t="inlineStr"/>
+      <c r="DM4" t="inlineStr"/>
+      <c r="DN4" t="inlineStr"/>
+      <c r="DO4" t="inlineStr"/>
+      <c r="DP4" t="inlineStr"/>
+      <c r="DQ4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3423120171</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3423120171</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>12/18/2023</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>34</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Stand-alone Order</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="n">
+        <v>3833</v>
+      </c>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>chris@creativekidsgroup.com.hk</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>Buc-ees 34 Baytown TX</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>4080 East Freeway</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>Baytown</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>77521</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr">
+        <is>
+          <t>Buc-ees Ltd.</t>
+        </is>
+      </c>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr"/>
+      <c r="CG5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr"/>
+      <c r="CI5" t="inlineStr"/>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="inlineStr"/>
+      <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr"/>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="inlineStr"/>
+      <c r="CZ5" t="inlineStr"/>
+      <c r="DA5" t="inlineStr"/>
+      <c r="DB5" t="inlineStr"/>
+      <c r="DC5" t="inlineStr"/>
+      <c r="DD5" t="inlineStr"/>
+      <c r="DE5" t="inlineStr"/>
+      <c r="DF5" t="inlineStr"/>
+      <c r="DG5" t="inlineStr"/>
+      <c r="DH5" t="inlineStr"/>
+      <c r="DI5" t="inlineStr"/>
+      <c r="DJ5" t="inlineStr"/>
+      <c r="DK5" t="inlineStr"/>
+      <c r="DL5" t="inlineStr"/>
+      <c r="DM5" t="inlineStr"/>
+      <c r="DN5" t="inlineStr"/>
+      <c r="DO5" t="inlineStr"/>
+      <c r="DP5" t="inlineStr"/>
+      <c r="DQ5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3423120171</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>24</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>156423</v>
+      </c>
+      <c r="R6" t="n">
+        <v>653899622985</v>
+      </c>
+      <c r="S6" t="n">
+        <v>62298</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>CK WATER ART FARM</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr"/>
+      <c r="CG6" t="inlineStr"/>
+      <c r="CH6" t="inlineStr"/>
+      <c r="CI6" t="inlineStr"/>
+      <c r="CJ6" t="inlineStr"/>
+      <c r="CK6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr"/>
+      <c r="CM6" t="inlineStr"/>
+      <c r="CN6" t="inlineStr"/>
+      <c r="CO6" t="inlineStr"/>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="inlineStr"/>
+      <c r="CZ6" t="inlineStr"/>
+      <c r="DA6" t="inlineStr"/>
+      <c r="DB6" t="inlineStr"/>
+      <c r="DC6" t="inlineStr"/>
+      <c r="DD6" t="inlineStr"/>
+      <c r="DE6" t="inlineStr"/>
+      <c r="DF6" t="inlineStr"/>
+      <c r="DG6" t="inlineStr"/>
+      <c r="DH6" t="inlineStr"/>
+      <c r="DI6" t="inlineStr"/>
+      <c r="DJ6" t="inlineStr"/>
+      <c r="DK6" t="inlineStr"/>
+      <c r="DL6" t="inlineStr"/>
+      <c r="DM6" t="inlineStr"/>
+      <c r="DN6" t="inlineStr"/>
+      <c r="DO6" t="inlineStr"/>
+      <c r="DP6" t="inlineStr"/>
+      <c r="DQ6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3423120171</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>24</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>156420</v>
+      </c>
+      <c r="R7" t="n">
+        <v>653899622954</v>
+      </c>
+      <c r="S7" t="n">
+        <v>62295</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>CK WATER ART PRINCESSES</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr"/>
+      <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="inlineStr"/>
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="inlineStr"/>
+      <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="inlineStr"/>
+      <c r="CC7" t="inlineStr"/>
+      <c r="CD7" t="inlineStr"/>
+      <c r="CE7" t="inlineStr"/>
+      <c r="CF7" t="inlineStr"/>
+      <c r="CG7" t="inlineStr"/>
+      <c r="CH7" t="inlineStr"/>
+      <c r="CI7" t="inlineStr"/>
+      <c r="CJ7" t="inlineStr"/>
+      <c r="CK7" t="inlineStr"/>
+      <c r="CL7" t="inlineStr"/>
+      <c r="CM7" t="inlineStr"/>
+      <c r="CN7" t="inlineStr"/>
+      <c r="CO7" t="inlineStr"/>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="inlineStr"/>
+      <c r="CT7" t="inlineStr"/>
+      <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr"/>
+      <c r="CW7" t="inlineStr"/>
+      <c r="CX7" t="inlineStr"/>
+      <c r="CY7" t="inlineStr"/>
+      <c r="CZ7" t="inlineStr"/>
+      <c r="DA7" t="inlineStr"/>
+      <c r="DB7" t="inlineStr"/>
+      <c r="DC7" t="inlineStr"/>
+      <c r="DD7" t="inlineStr"/>
+      <c r="DE7" t="inlineStr"/>
+      <c r="DF7" t="inlineStr"/>
+      <c r="DG7" t="inlineStr"/>
+      <c r="DH7" t="inlineStr"/>
+      <c r="DI7" t="inlineStr"/>
+      <c r="DJ7" t="inlineStr"/>
+      <c r="DK7" t="inlineStr"/>
+      <c r="DL7" t="inlineStr"/>
+      <c r="DM7" t="inlineStr"/>
+      <c r="DN7" t="inlineStr"/>
+      <c r="DO7" t="inlineStr"/>
+      <c r="DP7" t="inlineStr"/>
+      <c r="DQ7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3723120183</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3723120183</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>12/18/2023</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>37</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Stand-alone Order</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="n">
+        <v>3833</v>
+      </c>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>chris@creativekidsgroup.com.hk</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>Buc-ees 37 Fort Worth TX</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>15901 N Freeway</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>76177</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr"/>
+      <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="inlineStr"/>
+      <c r="BX8" t="inlineStr"/>
+      <c r="BY8" t="inlineStr"/>
+      <c r="BZ8" t="inlineStr"/>
+      <c r="CA8" t="inlineStr">
+        <is>
+          <t>Buc-ees Ltd.</t>
+        </is>
+      </c>
+      <c r="CB8" t="inlineStr"/>
+      <c r="CC8" t="inlineStr"/>
+      <c r="CD8" t="inlineStr"/>
+      <c r="CE8" t="inlineStr"/>
+      <c r="CF8" t="inlineStr"/>
+      <c r="CG8" t="inlineStr"/>
+      <c r="CH8" t="inlineStr"/>
+      <c r="CI8" t="inlineStr"/>
+      <c r="CJ8" t="inlineStr"/>
+      <c r="CK8" t="inlineStr"/>
+      <c r="CL8" t="inlineStr"/>
+      <c r="CM8" t="inlineStr"/>
+      <c r="CN8" t="inlineStr"/>
+      <c r="CO8" t="inlineStr"/>
+      <c r="CP8" t="inlineStr"/>
+      <c r="CQ8" t="inlineStr"/>
+      <c r="CR8" t="inlineStr"/>
+      <c r="CS8" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr"/>
+      <c r="CV8" t="inlineStr"/>
+      <c r="CW8" t="inlineStr"/>
+      <c r="CX8" t="inlineStr"/>
+      <c r="CY8" t="inlineStr"/>
+      <c r="CZ8" t="inlineStr"/>
+      <c r="DA8" t="inlineStr"/>
+      <c r="DB8" t="inlineStr"/>
+      <c r="DC8" t="inlineStr"/>
+      <c r="DD8" t="inlineStr"/>
+      <c r="DE8" t="inlineStr"/>
+      <c r="DF8" t="inlineStr"/>
+      <c r="DG8" t="inlineStr"/>
+      <c r="DH8" t="inlineStr"/>
+      <c r="DI8" t="inlineStr"/>
+      <c r="DJ8" t="inlineStr"/>
+      <c r="DK8" t="inlineStr"/>
+      <c r="DL8" t="inlineStr"/>
+      <c r="DM8" t="inlineStr"/>
+      <c r="DN8" t="inlineStr"/>
+      <c r="DO8" t="inlineStr"/>
+      <c r="DP8" t="inlineStr"/>
+      <c r="DQ8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3723120183</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>24</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>156420</v>
+      </c>
+      <c r="R9" t="n">
+        <v>653899622954</v>
+      </c>
+      <c r="S9" t="n">
+        <v>62295</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>CK WATER ART PRINCESSES</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr"/>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr"/>
+      <c r="BV9" t="inlineStr"/>
+      <c r="BW9" t="inlineStr"/>
+      <c r="BX9" t="inlineStr"/>
+      <c r="BY9" t="inlineStr"/>
+      <c r="BZ9" t="inlineStr"/>
+      <c r="CA9" t="inlineStr"/>
+      <c r="CB9" t="inlineStr"/>
+      <c r="CC9" t="inlineStr"/>
+      <c r="CD9" t="inlineStr"/>
+      <c r="CE9" t="inlineStr"/>
+      <c r="CF9" t="inlineStr"/>
+      <c r="CG9" t="inlineStr"/>
+      <c r="CH9" t="inlineStr"/>
+      <c r="CI9" t="inlineStr"/>
+      <c r="CJ9" t="inlineStr"/>
+      <c r="CK9" t="inlineStr"/>
+      <c r="CL9" t="inlineStr"/>
+      <c r="CM9" t="inlineStr"/>
+      <c r="CN9" t="inlineStr"/>
+      <c r="CO9" t="inlineStr"/>
+      <c r="CP9" t="inlineStr"/>
+      <c r="CQ9" t="inlineStr"/>
+      <c r="CR9" t="inlineStr"/>
+      <c r="CS9" t="inlineStr"/>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr"/>
+      <c r="CW9" t="inlineStr"/>
+      <c r="CX9" t="inlineStr"/>
+      <c r="CY9" t="inlineStr"/>
+      <c r="CZ9" t="inlineStr"/>
+      <c r="DA9" t="inlineStr"/>
+      <c r="DB9" t="inlineStr"/>
+      <c r="DC9" t="inlineStr"/>
+      <c r="DD9" t="inlineStr"/>
+      <c r="DE9" t="inlineStr"/>
+      <c r="DF9" t="inlineStr"/>
+      <c r="DG9" t="inlineStr"/>
+      <c r="DH9" t="inlineStr"/>
+      <c r="DI9" t="inlineStr"/>
+      <c r="DJ9" t="inlineStr"/>
+      <c r="DK9" t="inlineStr"/>
+      <c r="DL9" t="inlineStr"/>
+      <c r="DM9" t="inlineStr"/>
+      <c r="DN9" t="inlineStr"/>
+      <c r="DO9" t="inlineStr"/>
+      <c r="DP9" t="inlineStr"/>
+      <c r="DQ9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3723120183</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>24</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>156424</v>
+      </c>
+      <c r="R10" t="n">
+        <v>653899622992</v>
+      </c>
+      <c r="S10" t="n">
+        <v>62299</v>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>CK WATER ART SEA CREATURES</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr"/>
+      <c r="BM10" t="inlineStr"/>
+      <c r="BN10" t="inlineStr"/>
+      <c r="BO10" t="inlineStr"/>
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="inlineStr"/>
+      <c r="BV10" t="inlineStr"/>
+      <c r="BW10" t="inlineStr"/>
+      <c r="BX10" t="inlineStr"/>
+      <c r="BY10" t="inlineStr"/>
+      <c r="BZ10" t="inlineStr"/>
+      <c r="CA10" t="inlineStr"/>
+      <c r="CB10" t="inlineStr"/>
+      <c r="CC10" t="inlineStr"/>
+      <c r="CD10" t="inlineStr"/>
+      <c r="CE10" t="inlineStr"/>
+      <c r="CF10" t="inlineStr"/>
+      <c r="CG10" t="inlineStr"/>
+      <c r="CH10" t="inlineStr"/>
+      <c r="CI10" t="inlineStr"/>
+      <c r="CJ10" t="inlineStr"/>
+      <c r="CK10" t="inlineStr"/>
+      <c r="CL10" t="inlineStr"/>
+      <c r="CM10" t="inlineStr"/>
+      <c r="CN10" t="inlineStr"/>
+      <c r="CO10" t="inlineStr"/>
+      <c r="CP10" t="inlineStr"/>
+      <c r="CQ10" t="inlineStr"/>
+      <c r="CR10" t="inlineStr"/>
+      <c r="CS10" t="inlineStr"/>
+      <c r="CT10" t="inlineStr"/>
+      <c r="CU10" t="inlineStr"/>
+      <c r="CV10" t="inlineStr"/>
+      <c r="CW10" t="inlineStr"/>
+      <c r="CX10" t="inlineStr"/>
+      <c r="CY10" t="inlineStr"/>
+      <c r="CZ10" t="inlineStr"/>
+      <c r="DA10" t="inlineStr"/>
+      <c r="DB10" t="inlineStr"/>
+      <c r="DC10" t="inlineStr"/>
+      <c r="DD10" t="inlineStr"/>
+      <c r="DE10" t="inlineStr"/>
+      <c r="DF10" t="inlineStr"/>
+      <c r="DG10" t="inlineStr"/>
+      <c r="DH10" t="inlineStr"/>
+      <c r="DI10" t="inlineStr"/>
+      <c r="DJ10" t="inlineStr"/>
+      <c r="DK10" t="inlineStr"/>
+      <c r="DL10" t="inlineStr"/>
+      <c r="DM10" t="inlineStr"/>
+      <c r="DN10" t="inlineStr"/>
+      <c r="DO10" t="inlineStr"/>
+      <c r="DP10" t="inlineStr"/>
+      <c r="DQ10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4423120187</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4423120187</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>12/18/2023</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>44</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>Stand-alone Order</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="n">
+        <v>3833</v>
+      </c>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>chris@creativekidsgroup.com.hk</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>Buc-ees 44 Melissa TX</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>1550 Central Expressway</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>Melissa</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>75454</t>
+        </is>
+      </c>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr"/>
+      <c r="BY11" t="inlineStr"/>
+      <c r="BZ11" t="inlineStr"/>
+      <c r="CA11" t="inlineStr">
+        <is>
+          <t>Buc-ees Ltd.</t>
+        </is>
+      </c>
+      <c r="CB11" t="inlineStr"/>
+      <c r="CC11" t="inlineStr"/>
+      <c r="CD11" t="inlineStr"/>
+      <c r="CE11" t="inlineStr"/>
+      <c r="CF11" t="inlineStr"/>
+      <c r="CG11" t="inlineStr"/>
+      <c r="CH11" t="inlineStr"/>
+      <c r="CI11" t="inlineStr"/>
+      <c r="CJ11" t="inlineStr"/>
+      <c r="CK11" t="inlineStr"/>
+      <c r="CL11" t="inlineStr"/>
+      <c r="CM11" t="inlineStr"/>
+      <c r="CN11" t="inlineStr"/>
+      <c r="CO11" t="inlineStr"/>
+      <c r="CP11" t="inlineStr"/>
+      <c r="CQ11" t="inlineStr"/>
+      <c r="CR11" t="inlineStr"/>
+      <c r="CS11" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="CT11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr"/>
+      <c r="CV11" t="inlineStr"/>
+      <c r="CW11" t="inlineStr"/>
+      <c r="CX11" t="inlineStr"/>
+      <c r="CY11" t="inlineStr"/>
+      <c r="CZ11" t="inlineStr"/>
+      <c r="DA11" t="inlineStr"/>
+      <c r="DB11" t="inlineStr"/>
+      <c r="DC11" t="inlineStr"/>
+      <c r="DD11" t="inlineStr"/>
+      <c r="DE11" t="inlineStr"/>
+      <c r="DF11" t="inlineStr"/>
+      <c r="DG11" t="inlineStr"/>
+      <c r="DH11" t="inlineStr"/>
+      <c r="DI11" t="inlineStr"/>
+      <c r="DJ11" t="inlineStr"/>
+      <c r="DK11" t="inlineStr"/>
+      <c r="DL11" t="inlineStr"/>
+      <c r="DM11" t="inlineStr"/>
+      <c r="DN11" t="inlineStr"/>
+      <c r="DO11" t="inlineStr"/>
+      <c r="DP11" t="inlineStr"/>
+      <c r="DQ11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4423120187</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>24</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>156422</v>
+      </c>
+      <c r="R12" t="n">
+        <v>653899622978</v>
+      </c>
+      <c r="S12" t="n">
+        <v>62297</v>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>CK WATER ART CONSTRUCTION</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr"/>
+      <c r="BM12" t="inlineStr"/>
+      <c r="BN12" t="inlineStr"/>
+      <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="inlineStr"/>
+      <c r="BV12" t="inlineStr"/>
+      <c r="BW12" t="inlineStr"/>
+      <c r="BX12" t="inlineStr"/>
+      <c r="BY12" t="inlineStr"/>
+      <c r="BZ12" t="inlineStr"/>
+      <c r="CA12" t="inlineStr"/>
+      <c r="CB12" t="inlineStr"/>
+      <c r="CC12" t="inlineStr"/>
+      <c r="CD12" t="inlineStr"/>
+      <c r="CE12" t="inlineStr"/>
+      <c r="CF12" t="inlineStr"/>
+      <c r="CG12" t="inlineStr"/>
+      <c r="CH12" t="inlineStr"/>
+      <c r="CI12" t="inlineStr"/>
+      <c r="CJ12" t="inlineStr"/>
+      <c r="CK12" t="inlineStr"/>
+      <c r="CL12" t="inlineStr"/>
+      <c r="CM12" t="inlineStr"/>
+      <c r="CN12" t="inlineStr"/>
+      <c r="CO12" t="inlineStr"/>
+      <c r="CP12" t="inlineStr"/>
+      <c r="CQ12" t="inlineStr"/>
+      <c r="CR12" t="inlineStr"/>
+      <c r="CS12" t="inlineStr"/>
+      <c r="CT12" t="inlineStr"/>
+      <c r="CU12" t="inlineStr"/>
+      <c r="CV12" t="inlineStr"/>
+      <c r="CW12" t="inlineStr"/>
+      <c r="CX12" t="inlineStr"/>
+      <c r="CY12" t="inlineStr"/>
+      <c r="CZ12" t="inlineStr"/>
+      <c r="DA12" t="inlineStr"/>
+      <c r="DB12" t="inlineStr"/>
+      <c r="DC12" t="inlineStr"/>
+      <c r="DD12" t="inlineStr"/>
+      <c r="DE12" t="inlineStr"/>
+      <c r="DF12" t="inlineStr"/>
+      <c r="DG12" t="inlineStr"/>
+      <c r="DH12" t="inlineStr"/>
+      <c r="DI12" t="inlineStr"/>
+      <c r="DJ12" t="inlineStr"/>
+      <c r="DK12" t="inlineStr"/>
+      <c r="DL12" t="inlineStr"/>
+      <c r="DM12" t="inlineStr"/>
+      <c r="DN12" t="inlineStr"/>
+      <c r="DO12" t="inlineStr"/>
+      <c r="DP12" t="inlineStr"/>
+      <c r="DQ12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4423120187</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>24</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>156421</v>
+      </c>
+      <c r="R13" t="n">
+        <v>653899622961</v>
+      </c>
+      <c r="S13" t="n">
+        <v>62296</v>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>CK WATER ART DRAGON</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="inlineStr"/>
+      <c r="BM13" t="inlineStr"/>
+      <c r="BN13" t="inlineStr"/>
+      <c r="BO13" t="inlineStr"/>
+      <c r="BP13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
+      <c r="BS13" t="inlineStr"/>
+      <c r="BT13" t="inlineStr"/>
+      <c r="BU13" t="inlineStr"/>
+      <c r="BV13" t="inlineStr"/>
+      <c r="BW13" t="inlineStr"/>
+      <c r="BX13" t="inlineStr"/>
+      <c r="BY13" t="inlineStr"/>
+      <c r="BZ13" t="inlineStr"/>
+      <c r="CA13" t="inlineStr"/>
+      <c r="CB13" t="inlineStr"/>
+      <c r="CC13" t="inlineStr"/>
+      <c r="CD13" t="inlineStr"/>
+      <c r="CE13" t="inlineStr"/>
+      <c r="CF13" t="inlineStr"/>
+      <c r="CG13" t="inlineStr"/>
+      <c r="CH13" t="inlineStr"/>
+      <c r="CI13" t="inlineStr"/>
+      <c r="CJ13" t="inlineStr"/>
+      <c r="CK13" t="inlineStr"/>
+      <c r="CL13" t="inlineStr"/>
+      <c r="CM13" t="inlineStr"/>
+      <c r="CN13" t="inlineStr"/>
+      <c r="CO13" t="inlineStr"/>
+      <c r="CP13" t="inlineStr"/>
+      <c r="CQ13" t="inlineStr"/>
+      <c r="CR13" t="inlineStr"/>
+      <c r="CS13" t="inlineStr"/>
+      <c r="CT13" t="inlineStr"/>
+      <c r="CU13" t="inlineStr"/>
+      <c r="CV13" t="inlineStr"/>
+      <c r="CW13" t="inlineStr"/>
+      <c r="CX13" t="inlineStr"/>
+      <c r="CY13" t="inlineStr"/>
+      <c r="CZ13" t="inlineStr"/>
+      <c r="DA13" t="inlineStr"/>
+      <c r="DB13" t="inlineStr"/>
+      <c r="DC13" t="inlineStr"/>
+      <c r="DD13" t="inlineStr"/>
+      <c r="DE13" t="inlineStr"/>
+      <c r="DF13" t="inlineStr"/>
+      <c r="DG13" t="inlineStr"/>
+      <c r="DH13" t="inlineStr"/>
+      <c r="DI13" t="inlineStr"/>
+      <c r="DJ13" t="inlineStr"/>
+      <c r="DK13" t="inlineStr"/>
+      <c r="DL13" t="inlineStr"/>
+      <c r="DM13" t="inlineStr"/>
+      <c r="DN13" t="inlineStr"/>
+      <c r="DO13" t="inlineStr"/>
+      <c r="DP13" t="inlineStr"/>
+      <c r="DQ13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4423120187</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>24</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>156420</v>
+      </c>
+      <c r="R14" t="n">
+        <v>653899622954</v>
+      </c>
+      <c r="S14" t="n">
+        <v>62295</v>
+      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>CK WATER ART PRINCESSES</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="inlineStr"/>
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="inlineStr"/>
+      <c r="BM14" t="inlineStr"/>
+      <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="inlineStr"/>
+      <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
+      <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="inlineStr"/>
+      <c r="BU14" t="inlineStr"/>
+      <c r="BV14" t="inlineStr"/>
+      <c r="BW14" t="inlineStr"/>
+      <c r="BX14" t="inlineStr"/>
+      <c r="BY14" t="inlineStr"/>
+      <c r="BZ14" t="inlineStr"/>
+      <c r="CA14" t="inlineStr"/>
+      <c r="CB14" t="inlineStr"/>
+      <c r="CC14" t="inlineStr"/>
+      <c r="CD14" t="inlineStr"/>
+      <c r="CE14" t="inlineStr"/>
+      <c r="CF14" t="inlineStr"/>
+      <c r="CG14" t="inlineStr"/>
+      <c r="CH14" t="inlineStr"/>
+      <c r="CI14" t="inlineStr"/>
+      <c r="CJ14" t="inlineStr"/>
+      <c r="CK14" t="inlineStr"/>
+      <c r="CL14" t="inlineStr"/>
+      <c r="CM14" t="inlineStr"/>
+      <c r="CN14" t="inlineStr"/>
+      <c r="CO14" t="inlineStr"/>
+      <c r="CP14" t="inlineStr"/>
+      <c r="CQ14" t="inlineStr"/>
+      <c r="CR14" t="inlineStr"/>
+      <c r="CS14" t="inlineStr"/>
+      <c r="CT14" t="inlineStr"/>
+      <c r="CU14" t="inlineStr"/>
+      <c r="CV14" t="inlineStr"/>
+      <c r="CW14" t="inlineStr"/>
+      <c r="CX14" t="inlineStr"/>
+      <c r="CY14" t="inlineStr"/>
+      <c r="CZ14" t="inlineStr"/>
+      <c r="DA14" t="inlineStr"/>
+      <c r="DB14" t="inlineStr"/>
+      <c r="DC14" t="inlineStr"/>
+      <c r="DD14" t="inlineStr"/>
+      <c r="DE14" t="inlineStr"/>
+      <c r="DF14" t="inlineStr"/>
+      <c r="DG14" t="inlineStr"/>
+      <c r="DH14" t="inlineStr"/>
+      <c r="DI14" t="inlineStr"/>
+      <c r="DJ14" t="inlineStr"/>
+      <c r="DK14" t="inlineStr"/>
+      <c r="DL14" t="inlineStr"/>
+      <c r="DM14" t="inlineStr"/>
+      <c r="DN14" t="inlineStr"/>
+      <c r="DO14" t="inlineStr"/>
+      <c r="DP14" t="inlineStr"/>
+      <c r="DQ14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4523120180</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>4523120180</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>12/18/2023</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>45</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>Stand-alone Order</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="n">
+        <v>3833</v>
+      </c>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>chris@creativekidsgroup.com.hk</t>
+        </is>
+      </c>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>Buc-ees 45 Sevierville TN</t>
+        </is>
+      </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>170 Buc-ees Blvd</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>Kodak</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>37764</t>
+        </is>
+      </c>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="BR15" t="inlineStr"/>
+      <c r="BS15" t="inlineStr"/>
+      <c r="BT15" t="inlineStr"/>
+      <c r="BU15" t="inlineStr"/>
+      <c r="BV15" t="inlineStr"/>
+      <c r="BW15" t="inlineStr"/>
+      <c r="BX15" t="inlineStr"/>
+      <c r="BY15" t="inlineStr"/>
+      <c r="BZ15" t="inlineStr"/>
+      <c r="CA15" t="inlineStr">
+        <is>
+          <t>Buc-ees Tennessee II LLC</t>
+        </is>
+      </c>
+      <c r="CB15" t="inlineStr"/>
+      <c r="CC15" t="inlineStr"/>
+      <c r="CD15" t="inlineStr"/>
+      <c r="CE15" t="inlineStr"/>
+      <c r="CF15" t="inlineStr"/>
+      <c r="CG15" t="inlineStr"/>
+      <c r="CH15" t="inlineStr"/>
+      <c r="CI15" t="inlineStr"/>
+      <c r="CJ15" t="inlineStr"/>
+      <c r="CK15" t="inlineStr"/>
+      <c r="CL15" t="inlineStr"/>
+      <c r="CM15" t="inlineStr"/>
+      <c r="CN15" t="inlineStr"/>
+      <c r="CO15" t="inlineStr"/>
+      <c r="CP15" t="inlineStr"/>
+      <c r="CQ15" t="inlineStr"/>
+      <c r="CR15" t="inlineStr"/>
+      <c r="CS15" t="n">
+        <v>327.6</v>
+      </c>
+      <c r="CT15" t="inlineStr"/>
+      <c r="CU15" t="inlineStr"/>
+      <c r="CV15" t="inlineStr"/>
+      <c r="CW15" t="inlineStr"/>
+      <c r="CX15" t="inlineStr"/>
+      <c r="CY15" t="inlineStr"/>
+      <c r="CZ15" t="inlineStr"/>
+      <c r="DA15" t="inlineStr"/>
+      <c r="DB15" t="inlineStr"/>
+      <c r="DC15" t="inlineStr"/>
+      <c r="DD15" t="inlineStr"/>
+      <c r="DE15" t="inlineStr"/>
+      <c r="DF15" t="inlineStr"/>
+      <c r="DG15" t="inlineStr"/>
+      <c r="DH15" t="inlineStr"/>
+      <c r="DI15" t="inlineStr"/>
+      <c r="DJ15" t="inlineStr"/>
+      <c r="DK15" t="inlineStr"/>
+      <c r="DL15" t="inlineStr"/>
+      <c r="DM15" t="inlineStr"/>
+      <c r="DN15" t="inlineStr"/>
+      <c r="DO15" t="inlineStr"/>
+      <c r="DP15" t="inlineStr"/>
+      <c r="DQ15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4523120180</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>24</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>156422</v>
+      </c>
+      <c r="R16" t="n">
+        <v>653899622978</v>
+      </c>
+      <c r="S16" t="n">
+        <v>62297</v>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>CK WATER ART CONSTRUCTION</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr"/>
+      <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr"/>
+      <c r="BO16" t="inlineStr"/>
+      <c r="BP16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
+      <c r="BS16" t="inlineStr"/>
+      <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="inlineStr"/>
+      <c r="BV16" t="inlineStr"/>
+      <c r="BW16" t="inlineStr"/>
+      <c r="BX16" t="inlineStr"/>
+      <c r="BY16" t="inlineStr"/>
+      <c r="BZ16" t="inlineStr"/>
+      <c r="CA16" t="inlineStr"/>
+      <c r="CB16" t="inlineStr"/>
+      <c r="CC16" t="inlineStr"/>
+      <c r="CD16" t="inlineStr"/>
+      <c r="CE16" t="inlineStr"/>
+      <c r="CF16" t="inlineStr"/>
+      <c r="CG16" t="inlineStr"/>
+      <c r="CH16" t="inlineStr"/>
+      <c r="CI16" t="inlineStr"/>
+      <c r="CJ16" t="inlineStr"/>
+      <c r="CK16" t="inlineStr"/>
+      <c r="CL16" t="inlineStr"/>
+      <c r="CM16" t="inlineStr"/>
+      <c r="CN16" t="inlineStr"/>
+      <c r="CO16" t="inlineStr"/>
+      <c r="CP16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr"/>
+      <c r="CR16" t="inlineStr"/>
+      <c r="CS16" t="inlineStr"/>
+      <c r="CT16" t="inlineStr"/>
+      <c r="CU16" t="inlineStr"/>
+      <c r="CV16" t="inlineStr"/>
+      <c r="CW16" t="inlineStr"/>
+      <c r="CX16" t="inlineStr"/>
+      <c r="CY16" t="inlineStr"/>
+      <c r="CZ16" t="inlineStr"/>
+      <c r="DA16" t="inlineStr"/>
+      <c r="DB16" t="inlineStr"/>
+      <c r="DC16" t="inlineStr"/>
+      <c r="DD16" t="inlineStr"/>
+      <c r="DE16" t="inlineStr"/>
+      <c r="DF16" t="inlineStr"/>
+      <c r="DG16" t="inlineStr"/>
+      <c r="DH16" t="inlineStr"/>
+      <c r="DI16" t="inlineStr"/>
+      <c r="DJ16" t="inlineStr"/>
+      <c r="DK16" t="inlineStr"/>
+      <c r="DL16" t="inlineStr"/>
+      <c r="DM16" t="inlineStr"/>
+      <c r="DN16" t="inlineStr"/>
+      <c r="DO16" t="inlineStr"/>
+      <c r="DP16" t="inlineStr"/>
+      <c r="DQ16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4523120180</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>24</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>156421</v>
+      </c>
+      <c r="R17" t="n">
+        <v>653899622961</v>
+      </c>
+      <c r="S17" t="n">
+        <v>62296</v>
+      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>CK WATER ART DRAGON</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="inlineStr"/>
+      <c r="BM17" t="inlineStr"/>
+      <c r="BN17" t="inlineStr"/>
+      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
+      <c r="BS17" t="inlineStr"/>
+      <c r="BT17" t="inlineStr"/>
+      <c r="BU17" t="inlineStr"/>
+      <c r="BV17" t="inlineStr"/>
+      <c r="BW17" t="inlineStr"/>
+      <c r="BX17" t="inlineStr"/>
+      <c r="BY17" t="inlineStr"/>
+      <c r="BZ17" t="inlineStr"/>
+      <c r="CA17" t="inlineStr"/>
+      <c r="CB17" t="inlineStr"/>
+      <c r="CC17" t="inlineStr"/>
+      <c r="CD17" t="inlineStr"/>
+      <c r="CE17" t="inlineStr"/>
+      <c r="CF17" t="inlineStr"/>
+      <c r="CG17" t="inlineStr"/>
+      <c r="CH17" t="inlineStr"/>
+      <c r="CI17" t="inlineStr"/>
+      <c r="CJ17" t="inlineStr"/>
+      <c r="CK17" t="inlineStr"/>
+      <c r="CL17" t="inlineStr"/>
+      <c r="CM17" t="inlineStr"/>
+      <c r="CN17" t="inlineStr"/>
+      <c r="CO17" t="inlineStr"/>
+      <c r="CP17" t="inlineStr"/>
+      <c r="CQ17" t="inlineStr"/>
+      <c r="CR17" t="inlineStr"/>
+      <c r="CS17" t="inlineStr"/>
+      <c r="CT17" t="inlineStr"/>
+      <c r="CU17" t="inlineStr"/>
+      <c r="CV17" t="inlineStr"/>
+      <c r="CW17" t="inlineStr"/>
+      <c r="CX17" t="inlineStr"/>
+      <c r="CY17" t="inlineStr"/>
+      <c r="CZ17" t="inlineStr"/>
+      <c r="DA17" t="inlineStr"/>
+      <c r="DB17" t="inlineStr"/>
+      <c r="DC17" t="inlineStr"/>
+      <c r="DD17" t="inlineStr"/>
+      <c r="DE17" t="inlineStr"/>
+      <c r="DF17" t="inlineStr"/>
+      <c r="DG17" t="inlineStr"/>
+      <c r="DH17" t="inlineStr"/>
+      <c r="DI17" t="inlineStr"/>
+      <c r="DJ17" t="inlineStr"/>
+      <c r="DK17" t="inlineStr"/>
+      <c r="DL17" t="inlineStr"/>
+      <c r="DM17" t="inlineStr"/>
+      <c r="DN17" t="inlineStr"/>
+      <c r="DO17" t="inlineStr"/>
+      <c r="DP17" t="inlineStr"/>
+      <c r="DQ17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4523120180</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>48</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>156423</v>
+      </c>
+      <c r="R18" t="n">
+        <v>653899622985</v>
+      </c>
+      <c r="S18" t="n">
+        <v>62298</v>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>CK WATER ART FARM</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr"/>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr"/>
+      <c r="BJ18" t="inlineStr"/>
+      <c r="BK18" t="inlineStr"/>
+      <c r="BL18" t="inlineStr"/>
+      <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr"/>
+      <c r="BO18" t="inlineStr"/>
+      <c r="BP18" t="inlineStr"/>
+      <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
+      <c r="BS18" t="inlineStr"/>
+      <c r="BT18" t="inlineStr"/>
+      <c r="BU18" t="inlineStr"/>
+      <c r="BV18" t="inlineStr"/>
+      <c r="BW18" t="inlineStr"/>
+      <c r="BX18" t="inlineStr"/>
+      <c r="BY18" t="inlineStr"/>
+      <c r="BZ18" t="inlineStr"/>
+      <c r="CA18" t="inlineStr"/>
+      <c r="CB18" t="inlineStr"/>
+      <c r="CC18" t="inlineStr"/>
+      <c r="CD18" t="inlineStr"/>
+      <c r="CE18" t="inlineStr"/>
+      <c r="CF18" t="inlineStr"/>
+      <c r="CG18" t="inlineStr"/>
+      <c r="CH18" t="inlineStr"/>
+      <c r="CI18" t="inlineStr"/>
+      <c r="CJ18" t="inlineStr"/>
+      <c r="CK18" t="inlineStr"/>
+      <c r="CL18" t="inlineStr"/>
+      <c r="CM18" t="inlineStr"/>
+      <c r="CN18" t="inlineStr"/>
+      <c r="CO18" t="inlineStr"/>
+      <c r="CP18" t="inlineStr"/>
+      <c r="CQ18" t="inlineStr"/>
+      <c r="CR18" t="inlineStr"/>
+      <c r="CS18" t="inlineStr"/>
+      <c r="CT18" t="inlineStr"/>
+      <c r="CU18" t="inlineStr"/>
+      <c r="CV18" t="inlineStr"/>
+      <c r="CW18" t="inlineStr"/>
+      <c r="CX18" t="inlineStr"/>
+      <c r="CY18" t="inlineStr"/>
+      <c r="CZ18" t="inlineStr"/>
+      <c r="DA18" t="inlineStr"/>
+      <c r="DB18" t="inlineStr"/>
+      <c r="DC18" t="inlineStr"/>
+      <c r="DD18" t="inlineStr"/>
+      <c r="DE18" t="inlineStr"/>
+      <c r="DF18" t="inlineStr"/>
+      <c r="DG18" t="inlineStr"/>
+      <c r="DH18" t="inlineStr"/>
+      <c r="DI18" t="inlineStr"/>
+      <c r="DJ18" t="inlineStr"/>
+      <c r="DK18" t="inlineStr"/>
+      <c r="DL18" t="inlineStr"/>
+      <c r="DM18" t="inlineStr"/>
+      <c r="DN18" t="inlineStr"/>
+      <c r="DO18" t="inlineStr"/>
+      <c r="DP18" t="inlineStr"/>
+      <c r="DQ18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4523120180</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="n">
+        <v>48</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>156420</v>
+      </c>
+      <c r="R19" t="n">
+        <v>653899622954</v>
+      </c>
+      <c r="S19" t="n">
+        <v>62295</v>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>CK WATER ART PRINCESSES</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="inlineStr"/>
+      <c r="BM19" t="inlineStr"/>
+      <c r="BN19" t="inlineStr"/>
+      <c r="BO19" t="inlineStr"/>
+      <c r="BP19" t="inlineStr"/>
+      <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
+      <c r="BS19" t="inlineStr"/>
+      <c r="BT19" t="inlineStr"/>
+      <c r="BU19" t="inlineStr"/>
+      <c r="BV19" t="inlineStr"/>
+      <c r="BW19" t="inlineStr"/>
+      <c r="BX19" t="inlineStr"/>
+      <c r="BY19" t="inlineStr"/>
+      <c r="BZ19" t="inlineStr"/>
+      <c r="CA19" t="inlineStr"/>
+      <c r="CB19" t="inlineStr"/>
+      <c r="CC19" t="inlineStr"/>
+      <c r="CD19" t="inlineStr"/>
+      <c r="CE19" t="inlineStr"/>
+      <c r="CF19" t="inlineStr"/>
+      <c r="CG19" t="inlineStr"/>
+      <c r="CH19" t="inlineStr"/>
+      <c r="CI19" t="inlineStr"/>
+      <c r="CJ19" t="inlineStr"/>
+      <c r="CK19" t="inlineStr"/>
+      <c r="CL19" t="inlineStr"/>
+      <c r="CM19" t="inlineStr"/>
+      <c r="CN19" t="inlineStr"/>
+      <c r="CO19" t="inlineStr"/>
+      <c r="CP19" t="inlineStr"/>
+      <c r="CQ19" t="inlineStr"/>
+      <c r="CR19" t="inlineStr"/>
+      <c r="CS19" t="inlineStr"/>
+      <c r="CT19" t="inlineStr"/>
+      <c r="CU19" t="inlineStr"/>
+      <c r="CV19" t="inlineStr"/>
+      <c r="CW19" t="inlineStr"/>
+      <c r="CX19" t="inlineStr"/>
+      <c r="CY19" t="inlineStr"/>
+      <c r="CZ19" t="inlineStr"/>
+      <c r="DA19" t="inlineStr"/>
+      <c r="DB19" t="inlineStr"/>
+      <c r="DC19" t="inlineStr"/>
+      <c r="DD19" t="inlineStr"/>
+      <c r="DE19" t="inlineStr"/>
+      <c r="DF19" t="inlineStr"/>
+      <c r="DG19" t="inlineStr"/>
+      <c r="DH19" t="inlineStr"/>
+      <c r="DI19" t="inlineStr"/>
+      <c r="DJ19" t="inlineStr"/>
+      <c r="DK19" t="inlineStr"/>
+      <c r="DL19" t="inlineStr"/>
+      <c r="DM19" t="inlineStr"/>
+      <c r="DN19" t="inlineStr"/>
+      <c r="DO19" t="inlineStr"/>
+      <c r="DP19" t="inlineStr"/>
+      <c r="DQ19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4523120180</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>24</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>156419</v>
+      </c>
+      <c r="R20" t="n">
+        <v>653899622947</v>
+      </c>
+      <c r="S20" t="n">
+        <v>62294</v>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>CK WATER ART SPACE</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr"/>
+      <c r="BJ20" t="inlineStr"/>
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="inlineStr"/>
+      <c r="BM20" t="inlineStr"/>
+      <c r="BN20" t="inlineStr"/>
+      <c r="BO20" t="inlineStr"/>
+      <c r="BP20" t="inlineStr"/>
+      <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
+      <c r="BS20" t="inlineStr"/>
+      <c r="BT20" t="inlineStr"/>
+      <c r="BU20" t="inlineStr"/>
+      <c r="BV20" t="inlineStr"/>
+      <c r="BW20" t="inlineStr"/>
+      <c r="BX20" t="inlineStr"/>
+      <c r="BY20" t="inlineStr"/>
+      <c r="BZ20" t="inlineStr"/>
+      <c r="CA20" t="inlineStr"/>
+      <c r="CB20" t="inlineStr"/>
+      <c r="CC20" t="inlineStr"/>
+      <c r="CD20" t="inlineStr"/>
+      <c r="CE20" t="inlineStr"/>
+      <c r="CF20" t="inlineStr"/>
+      <c r="CG20" t="inlineStr"/>
+      <c r="CH20" t="inlineStr"/>
+      <c r="CI20" t="inlineStr"/>
+      <c r="CJ20" t="inlineStr"/>
+      <c r="CK20" t="inlineStr"/>
+      <c r="CL20" t="inlineStr"/>
+      <c r="CM20" t="inlineStr"/>
+      <c r="CN20" t="inlineStr"/>
+      <c r="CO20" t="inlineStr"/>
+      <c r="CP20" t="inlineStr"/>
+      <c r="CQ20" t="inlineStr"/>
+      <c r="CR20" t="inlineStr"/>
+      <c r="CS20" t="inlineStr"/>
+      <c r="CT20" t="inlineStr"/>
+      <c r="CU20" t="inlineStr"/>
+      <c r="CV20" t="inlineStr"/>
+      <c r="CW20" t="inlineStr"/>
+      <c r="CX20" t="inlineStr"/>
+      <c r="CY20" t="inlineStr"/>
+      <c r="CZ20" t="inlineStr"/>
+      <c r="DA20" t="inlineStr"/>
+      <c r="DB20" t="inlineStr"/>
+      <c r="DC20" t="inlineStr"/>
+      <c r="DD20" t="inlineStr"/>
+      <c r="DE20" t="inlineStr"/>
+      <c r="DF20" t="inlineStr"/>
+      <c r="DG20" t="inlineStr"/>
+      <c r="DH20" t="inlineStr"/>
+      <c r="DI20" t="inlineStr"/>
+      <c r="DJ20" t="inlineStr"/>
+      <c r="DK20" t="inlineStr"/>
+      <c r="DL20" t="inlineStr"/>
+      <c r="DM20" t="inlineStr"/>
+      <c r="DN20" t="inlineStr"/>
+      <c r="DO20" t="inlineStr"/>
+      <c r="DP20" t="inlineStr"/>
+      <c r="DQ20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4723120175</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>4723120175</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>12/18/2023</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>47</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>Stand-alone Order</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="n">
+        <v>3833</v>
+      </c>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="inlineStr"/>
+      <c r="AZ21" t="inlineStr"/>
+      <c r="BA21" t="inlineStr"/>
+      <c r="BB21" t="inlineStr"/>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>chris@creativekidsgroup.com.hk</t>
+        </is>
+      </c>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="inlineStr"/>
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr"/>
+      <c r="BI21" t="inlineStr"/>
+      <c r="BJ21" t="inlineStr"/>
+      <c r="BK21" t="inlineStr">
+        <is>
+          <t>Buc-ees 47 Daytona FL</t>
+        </is>
+      </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>2330 Gateway North Drive</t>
+        </is>
+      </c>
+      <c r="BM21" t="inlineStr"/>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>Daytona Beach</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>32117</t>
+        </is>
+      </c>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="BR21" t="inlineStr"/>
+      <c r="BS21" t="inlineStr"/>
+      <c r="BT21" t="inlineStr"/>
+      <c r="BU21" t="inlineStr"/>
+      <c r="BV21" t="inlineStr"/>
+      <c r="BW21" t="inlineStr"/>
+      <c r="BX21" t="inlineStr"/>
+      <c r="BY21" t="inlineStr"/>
+      <c r="BZ21" t="inlineStr"/>
+      <c r="CA21" t="inlineStr">
+        <is>
+          <t>Buc-ees Florida LLC</t>
+        </is>
+      </c>
+      <c r="CB21" t="inlineStr"/>
+      <c r="CC21" t="inlineStr"/>
+      <c r="CD21" t="inlineStr"/>
+      <c r="CE21" t="inlineStr"/>
+      <c r="CF21" t="inlineStr"/>
+      <c r="CG21" t="inlineStr"/>
+      <c r="CH21" t="inlineStr"/>
+      <c r="CI21" t="inlineStr"/>
+      <c r="CJ21" t="inlineStr"/>
+      <c r="CK21" t="inlineStr"/>
+      <c r="CL21" t="inlineStr"/>
+      <c r="CM21" t="inlineStr"/>
+      <c r="CN21" t="inlineStr"/>
+      <c r="CO21" t="inlineStr"/>
+      <c r="CP21" t="inlineStr"/>
+      <c r="CQ21" t="inlineStr"/>
+      <c r="CR21" t="inlineStr"/>
+      <c r="CS21" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="CT21" t="inlineStr"/>
+      <c r="CU21" t="inlineStr"/>
+      <c r="CV21" t="inlineStr"/>
+      <c r="CW21" t="inlineStr"/>
+      <c r="CX21" t="inlineStr"/>
+      <c r="CY21" t="inlineStr"/>
+      <c r="CZ21" t="inlineStr"/>
+      <c r="DA21" t="inlineStr"/>
+      <c r="DB21" t="inlineStr"/>
+      <c r="DC21" t="inlineStr"/>
+      <c r="DD21" t="inlineStr"/>
+      <c r="DE21" t="inlineStr"/>
+      <c r="DF21" t="inlineStr"/>
+      <c r="DG21" t="inlineStr"/>
+      <c r="DH21" t="inlineStr"/>
+      <c r="DI21" t="inlineStr"/>
+      <c r="DJ21" t="inlineStr"/>
+      <c r="DK21" t="inlineStr"/>
+      <c r="DL21" t="inlineStr"/>
+      <c r="DM21" t="inlineStr"/>
+      <c r="DN21" t="inlineStr"/>
+      <c r="DO21" t="inlineStr"/>
+      <c r="DP21" t="inlineStr"/>
+      <c r="DQ21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4723120175</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>48</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>156420</v>
+      </c>
+      <c r="R22" t="n">
+        <v>653899622954</v>
+      </c>
+      <c r="S22" t="n">
+        <v>62295</v>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>CK WATER ART PRINCESSES</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="inlineStr"/>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="inlineStr"/>
+      <c r="BJ22" t="inlineStr"/>
+      <c r="BK22" t="inlineStr"/>
+      <c r="BL22" t="inlineStr"/>
+      <c r="BM22" t="inlineStr"/>
+      <c r="BN22" t="inlineStr"/>
+      <c r="BO22" t="inlineStr"/>
+      <c r="BP22" t="inlineStr"/>
+      <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
+      <c r="BS22" t="inlineStr"/>
+      <c r="BT22" t="inlineStr"/>
+      <c r="BU22" t="inlineStr"/>
+      <c r="BV22" t="inlineStr"/>
+      <c r="BW22" t="inlineStr"/>
+      <c r="BX22" t="inlineStr"/>
+      <c r="BY22" t="inlineStr"/>
+      <c r="BZ22" t="inlineStr"/>
+      <c r="CA22" t="inlineStr"/>
+      <c r="CB22" t="inlineStr"/>
+      <c r="CC22" t="inlineStr"/>
+      <c r="CD22" t="inlineStr"/>
+      <c r="CE22" t="inlineStr"/>
+      <c r="CF22" t="inlineStr"/>
+      <c r="CG22" t="inlineStr"/>
+      <c r="CH22" t="inlineStr"/>
+      <c r="CI22" t="inlineStr"/>
+      <c r="CJ22" t="inlineStr"/>
+      <c r="CK22" t="inlineStr"/>
+      <c r="CL22" t="inlineStr"/>
+      <c r="CM22" t="inlineStr"/>
+      <c r="CN22" t="inlineStr"/>
+      <c r="CO22" t="inlineStr"/>
+      <c r="CP22" t="inlineStr"/>
+      <c r="CQ22" t="inlineStr"/>
+      <c r="CR22" t="inlineStr"/>
+      <c r="CS22" t="inlineStr"/>
+      <c r="CT22" t="inlineStr"/>
+      <c r="CU22" t="inlineStr"/>
+      <c r="CV22" t="inlineStr"/>
+      <c r="CW22" t="inlineStr"/>
+      <c r="CX22" t="inlineStr"/>
+      <c r="CY22" t="inlineStr"/>
+      <c r="CZ22" t="inlineStr"/>
+      <c r="DA22" t="inlineStr"/>
+      <c r="DB22" t="inlineStr"/>
+      <c r="DC22" t="inlineStr"/>
+      <c r="DD22" t="inlineStr"/>
+      <c r="DE22" t="inlineStr"/>
+      <c r="DF22" t="inlineStr"/>
+      <c r="DG22" t="inlineStr"/>
+      <c r="DH22" t="inlineStr"/>
+      <c r="DI22" t="inlineStr"/>
+      <c r="DJ22" t="inlineStr"/>
+      <c r="DK22" t="inlineStr"/>
+      <c r="DL22" t="inlineStr"/>
+      <c r="DM22" t="inlineStr"/>
+      <c r="DN22" t="inlineStr"/>
+      <c r="DO22" t="inlineStr"/>
+      <c r="DP22" t="inlineStr"/>
+      <c r="DQ22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4823120161</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4823120161</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>12/18/2023</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>48</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>Stand-alone Order</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="n">
+        <v>3833</v>
+      </c>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr"/>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr"/>
+      <c r="BB23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>chris@creativekidsgroup.com.hk</t>
+        </is>
+      </c>
+      <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="inlineStr"/>
+      <c r="BG23" t="inlineStr"/>
+      <c r="BH23" t="inlineStr"/>
+      <c r="BI23" t="inlineStr"/>
+      <c r="BJ23" t="inlineStr"/>
+      <c r="BK23" t="inlineStr">
+        <is>
+          <t>Buc-ees 48 Ennis TX</t>
+        </is>
+      </c>
+      <c r="BL23" t="inlineStr">
+        <is>
+          <t>1402 South IH-45</t>
+        </is>
+      </c>
+      <c r="BM23" t="inlineStr"/>
+      <c r="BN23" t="inlineStr">
+        <is>
+          <t>Ennis</t>
+        </is>
+      </c>
+      <c r="BO23" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="BP23" t="inlineStr">
+        <is>
+          <t>75119</t>
+        </is>
+      </c>
+      <c r="BQ23" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="BR23" t="inlineStr"/>
+      <c r="BS23" t="inlineStr"/>
+      <c r="BT23" t="inlineStr"/>
+      <c r="BU23" t="inlineStr"/>
+      <c r="BV23" t="inlineStr"/>
+      <c r="BW23" t="inlineStr"/>
+      <c r="BX23" t="inlineStr"/>
+      <c r="BY23" t="inlineStr"/>
+      <c r="BZ23" t="inlineStr"/>
+      <c r="CA23" t="inlineStr">
+        <is>
+          <t>Buc-ees Ennis LLC</t>
+        </is>
+      </c>
+      <c r="CB23" t="inlineStr"/>
+      <c r="CC23" t="inlineStr"/>
+      <c r="CD23" t="inlineStr"/>
+      <c r="CE23" t="inlineStr"/>
+      <c r="CF23" t="inlineStr"/>
+      <c r="CG23" t="inlineStr"/>
+      <c r="CH23" t="inlineStr"/>
+      <c r="CI23" t="inlineStr"/>
+      <c r="CJ23" t="inlineStr"/>
+      <c r="CK23" t="inlineStr"/>
+      <c r="CL23" t="inlineStr"/>
+      <c r="CM23" t="inlineStr"/>
+      <c r="CN23" t="inlineStr"/>
+      <c r="CO23" t="inlineStr"/>
+      <c r="CP23" t="inlineStr"/>
+      <c r="CQ23" t="inlineStr"/>
+      <c r="CR23" t="inlineStr"/>
+      <c r="CS23" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="CT23" t="inlineStr"/>
+      <c r="CU23" t="inlineStr"/>
+      <c r="CV23" t="inlineStr"/>
+      <c r="CW23" t="inlineStr"/>
+      <c r="CX23" t="inlineStr"/>
+      <c r="CY23" t="inlineStr"/>
+      <c r="CZ23" t="inlineStr"/>
+      <c r="DA23" t="inlineStr"/>
+      <c r="DB23" t="inlineStr"/>
+      <c r="DC23" t="inlineStr"/>
+      <c r="DD23" t="inlineStr"/>
+      <c r="DE23" t="inlineStr"/>
+      <c r="DF23" t="inlineStr"/>
+      <c r="DG23" t="inlineStr"/>
+      <c r="DH23" t="inlineStr"/>
+      <c r="DI23" t="inlineStr"/>
+      <c r="DJ23" t="inlineStr"/>
+      <c r="DK23" t="inlineStr"/>
+      <c r="DL23" t="inlineStr"/>
+      <c r="DM23" t="inlineStr"/>
+      <c r="DN23" t="inlineStr"/>
+      <c r="DO23" t="inlineStr"/>
+      <c r="DP23" t="inlineStr"/>
+      <c r="DQ23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4823120161</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>24</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>156421</v>
+      </c>
+      <c r="R24" t="n">
+        <v>653899622961</v>
+      </c>
+      <c r="S24" t="n">
+        <v>62296</v>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>CK WATER ART DRAGON</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr"/>
+      <c r="AY24" t="inlineStr"/>
+      <c r="AZ24" t="inlineStr"/>
+      <c r="BA24" t="inlineStr"/>
+      <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="inlineStr"/>
+      <c r="BF24" t="inlineStr"/>
+      <c r="BG24" t="inlineStr"/>
+      <c r="BH24" t="inlineStr"/>
+      <c r="BI24" t="inlineStr"/>
+      <c r="BJ24" t="inlineStr"/>
+      <c r="BK24" t="inlineStr"/>
+      <c r="BL24" t="inlineStr"/>
+      <c r="BM24" t="inlineStr"/>
+      <c r="BN24" t="inlineStr"/>
+      <c r="BO24" t="inlineStr"/>
+      <c r="BP24" t="inlineStr"/>
+      <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
+      <c r="BS24" t="inlineStr"/>
+      <c r="BT24" t="inlineStr"/>
+      <c r="BU24" t="inlineStr"/>
+      <c r="BV24" t="inlineStr"/>
+      <c r="BW24" t="inlineStr"/>
+      <c r="BX24" t="inlineStr"/>
+      <c r="BY24" t="inlineStr"/>
+      <c r="BZ24" t="inlineStr"/>
+      <c r="CA24" t="inlineStr"/>
+      <c r="CB24" t="inlineStr"/>
+      <c r="CC24" t="inlineStr"/>
+      <c r="CD24" t="inlineStr"/>
+      <c r="CE24" t="inlineStr"/>
+      <c r="CF24" t="inlineStr"/>
+      <c r="CG24" t="inlineStr"/>
+      <c r="CH24" t="inlineStr"/>
+      <c r="CI24" t="inlineStr"/>
+      <c r="CJ24" t="inlineStr"/>
+      <c r="CK24" t="inlineStr"/>
+      <c r="CL24" t="inlineStr"/>
+      <c r="CM24" t="inlineStr"/>
+      <c r="CN24" t="inlineStr"/>
+      <c r="CO24" t="inlineStr"/>
+      <c r="CP24" t="inlineStr"/>
+      <c r="CQ24" t="inlineStr"/>
+      <c r="CR24" t="inlineStr"/>
+      <c r="CS24" t="inlineStr"/>
+      <c r="CT24" t="inlineStr"/>
+      <c r="CU24" t="inlineStr"/>
+      <c r="CV24" t="inlineStr"/>
+      <c r="CW24" t="inlineStr"/>
+      <c r="CX24" t="inlineStr"/>
+      <c r="CY24" t="inlineStr"/>
+      <c r="CZ24" t="inlineStr"/>
+      <c r="DA24" t="inlineStr"/>
+      <c r="DB24" t="inlineStr"/>
+      <c r="DC24" t="inlineStr"/>
+      <c r="DD24" t="inlineStr"/>
+      <c r="DE24" t="inlineStr"/>
+      <c r="DF24" t="inlineStr"/>
+      <c r="DG24" t="inlineStr"/>
+      <c r="DH24" t="inlineStr"/>
+      <c r="DI24" t="inlineStr"/>
+      <c r="DJ24" t="inlineStr"/>
+      <c r="DK24" t="inlineStr"/>
+      <c r="DL24" t="inlineStr"/>
+      <c r="DM24" t="inlineStr"/>
+      <c r="DN24" t="inlineStr"/>
+      <c r="DO24" t="inlineStr"/>
+      <c r="DP24" t="inlineStr"/>
+      <c r="DQ24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4823120161</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>24</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>156423</v>
+      </c>
+      <c r="R25" t="n">
+        <v>653899622985</v>
+      </c>
+      <c r="S25" t="n">
+        <v>62298</v>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>CK WATER ART FARM</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="inlineStr"/>
+      <c r="BJ25" t="inlineStr"/>
+      <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="inlineStr"/>
+      <c r="BM25" t="inlineStr"/>
+      <c r="BN25" t="inlineStr"/>
+      <c r="BO25" t="inlineStr"/>
+      <c r="BP25" t="inlineStr"/>
+      <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
+      <c r="BS25" t="inlineStr"/>
+      <c r="BT25" t="inlineStr"/>
+      <c r="BU25" t="inlineStr"/>
+      <c r="BV25" t="inlineStr"/>
+      <c r="BW25" t="inlineStr"/>
+      <c r="BX25" t="inlineStr"/>
+      <c r="BY25" t="inlineStr"/>
+      <c r="BZ25" t="inlineStr"/>
+      <c r="CA25" t="inlineStr"/>
+      <c r="CB25" t="inlineStr"/>
+      <c r="CC25" t="inlineStr"/>
+      <c r="CD25" t="inlineStr"/>
+      <c r="CE25" t="inlineStr"/>
+      <c r="CF25" t="inlineStr"/>
+      <c r="CG25" t="inlineStr"/>
+      <c r="CH25" t="inlineStr"/>
+      <c r="CI25" t="inlineStr"/>
+      <c r="CJ25" t="inlineStr"/>
+      <c r="CK25" t="inlineStr"/>
+      <c r="CL25" t="inlineStr"/>
+      <c r="CM25" t="inlineStr"/>
+      <c r="CN25" t="inlineStr"/>
+      <c r="CO25" t="inlineStr"/>
+      <c r="CP25" t="inlineStr"/>
+      <c r="CQ25" t="inlineStr"/>
+      <c r="CR25" t="inlineStr"/>
+      <c r="CS25" t="inlineStr"/>
+      <c r="CT25" t="inlineStr"/>
+      <c r="CU25" t="inlineStr"/>
+      <c r="CV25" t="inlineStr"/>
+      <c r="CW25" t="inlineStr"/>
+      <c r="CX25" t="inlineStr"/>
+      <c r="CY25" t="inlineStr"/>
+      <c r="CZ25" t="inlineStr"/>
+      <c r="DA25" t="inlineStr"/>
+      <c r="DB25" t="inlineStr"/>
+      <c r="DC25" t="inlineStr"/>
+      <c r="DD25" t="inlineStr"/>
+      <c r="DE25" t="inlineStr"/>
+      <c r="DF25" t="inlineStr"/>
+      <c r="DG25" t="inlineStr"/>
+      <c r="DH25" t="inlineStr"/>
+      <c r="DI25" t="inlineStr"/>
+      <c r="DJ25" t="inlineStr"/>
+      <c r="DK25" t="inlineStr"/>
+      <c r="DL25" t="inlineStr"/>
+      <c r="DM25" t="inlineStr"/>
+      <c r="DN25" t="inlineStr"/>
+      <c r="DO25" t="inlineStr"/>
+      <c r="DP25" t="inlineStr"/>
+      <c r="DQ25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5023120172</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>5023120172</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>12/18/2023</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>50</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>Stand-alone Order</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="n">
+        <v>3833</v>
+      </c>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr"/>
+      <c r="AY26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr"/>
+      <c r="BB26" t="inlineStr"/>
+      <c r="BC26" t="inlineStr">
+        <is>
+          <t>chris@creativekidsgroup.com.hk</t>
+        </is>
+      </c>
+      <c r="BD26" t="inlineStr"/>
+      <c r="BE26" t="inlineStr"/>
+      <c r="BF26" t="inlineStr"/>
+      <c r="BG26" t="inlineStr"/>
+      <c r="BH26" t="inlineStr"/>
+      <c r="BI26" t="inlineStr"/>
+      <c r="BJ26" t="inlineStr"/>
+      <c r="BK26" t="inlineStr">
+        <is>
+          <t>Buc-ees 50 Crossville TN</t>
+        </is>
+      </c>
+      <c r="BL26" t="inlineStr">
+        <is>
+          <t>2045 Genesis Road</t>
+        </is>
+      </c>
+      <c r="BM26" t="inlineStr"/>
+      <c r="BN26" t="inlineStr">
+        <is>
+          <t>Crossville</t>
+        </is>
+      </c>
+      <c r="BO26" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="BP26" t="inlineStr">
+        <is>
+          <t>38555</t>
+        </is>
+      </c>
+      <c r="BQ26" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="BR26" t="inlineStr"/>
+      <c r="BS26" t="inlineStr"/>
+      <c r="BT26" t="inlineStr"/>
+      <c r="BU26" t="inlineStr"/>
+      <c r="BV26" t="inlineStr"/>
+      <c r="BW26" t="inlineStr"/>
+      <c r="BX26" t="inlineStr"/>
+      <c r="BY26" t="inlineStr"/>
+      <c r="BZ26" t="inlineStr"/>
+      <c r="CA26" t="inlineStr">
+        <is>
+          <t>Buc-ees Tennessee LLC</t>
+        </is>
+      </c>
+      <c r="CB26" t="inlineStr"/>
+      <c r="CC26" t="inlineStr"/>
+      <c r="CD26" t="inlineStr"/>
+      <c r="CE26" t="inlineStr"/>
+      <c r="CF26" t="inlineStr"/>
+      <c r="CG26" t="inlineStr"/>
+      <c r="CH26" t="inlineStr"/>
+      <c r="CI26" t="inlineStr"/>
+      <c r="CJ26" t="inlineStr"/>
+      <c r="CK26" t="inlineStr"/>
+      <c r="CL26" t="inlineStr"/>
+      <c r="CM26" t="inlineStr"/>
+      <c r="CN26" t="inlineStr"/>
+      <c r="CO26" t="inlineStr"/>
+      <c r="CP26" t="inlineStr"/>
+      <c r="CQ26" t="inlineStr"/>
+      <c r="CR26" t="inlineStr"/>
+      <c r="CS26" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="CT26" t="inlineStr"/>
+      <c r="CU26" t="inlineStr"/>
+      <c r="CV26" t="inlineStr"/>
+      <c r="CW26" t="inlineStr"/>
+      <c r="CX26" t="inlineStr"/>
+      <c r="CY26" t="inlineStr"/>
+      <c r="CZ26" t="inlineStr"/>
+      <c r="DA26" t="inlineStr"/>
+      <c r="DB26" t="inlineStr"/>
+      <c r="DC26" t="inlineStr"/>
+      <c r="DD26" t="inlineStr"/>
+      <c r="DE26" t="inlineStr"/>
+      <c r="DF26" t="inlineStr"/>
+      <c r="DG26" t="inlineStr"/>
+      <c r="DH26" t="inlineStr"/>
+      <c r="DI26" t="inlineStr"/>
+      <c r="DJ26" t="inlineStr"/>
+      <c r="DK26" t="inlineStr"/>
+      <c r="DL26" t="inlineStr"/>
+      <c r="DM26" t="inlineStr"/>
+      <c r="DN26" t="inlineStr"/>
+      <c r="DO26" t="inlineStr"/>
+      <c r="DP26" t="inlineStr"/>
+      <c r="DQ26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5023120172</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>24</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>156420</v>
+      </c>
+      <c r="R27" t="n">
+        <v>653899622954</v>
+      </c>
+      <c r="S27" t="n">
+        <v>62295</v>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>CK WATER ART PRINCESSES</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="inlineStr"/>
+      <c r="AY27" t="inlineStr"/>
+      <c r="AZ27" t="inlineStr"/>
+      <c r="BA27" t="inlineStr"/>
+      <c r="BB27" t="inlineStr"/>
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="inlineStr"/>
+      <c r="BG27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr"/>
+      <c r="BI27" t="inlineStr"/>
+      <c r="BJ27" t="inlineStr"/>
+      <c r="BK27" t="inlineStr"/>
+      <c r="BL27" t="inlineStr"/>
+      <c r="BM27" t="inlineStr"/>
+      <c r="BN27" t="inlineStr"/>
+      <c r="BO27" t="inlineStr"/>
+      <c r="BP27" t="inlineStr"/>
+      <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
+      <c r="BS27" t="inlineStr"/>
+      <c r="BT27" t="inlineStr"/>
+      <c r="BU27" t="inlineStr"/>
+      <c r="BV27" t="inlineStr"/>
+      <c r="BW27" t="inlineStr"/>
+      <c r="BX27" t="inlineStr"/>
+      <c r="BY27" t="inlineStr"/>
+      <c r="BZ27" t="inlineStr"/>
+      <c r="CA27" t="inlineStr"/>
+      <c r="CB27" t="inlineStr"/>
+      <c r="CC27" t="inlineStr"/>
+      <c r="CD27" t="inlineStr"/>
+      <c r="CE27" t="inlineStr"/>
+      <c r="CF27" t="inlineStr"/>
+      <c r="CG27" t="inlineStr"/>
+      <c r="CH27" t="inlineStr"/>
+      <c r="CI27" t="inlineStr"/>
+      <c r="CJ27" t="inlineStr"/>
+      <c r="CK27" t="inlineStr"/>
+      <c r="CL27" t="inlineStr"/>
+      <c r="CM27" t="inlineStr"/>
+      <c r="CN27" t="inlineStr"/>
+      <c r="CO27" t="inlineStr"/>
+      <c r="CP27" t="inlineStr"/>
+      <c r="CQ27" t="inlineStr"/>
+      <c r="CR27" t="inlineStr"/>
+      <c r="CS27" t="inlineStr"/>
+      <c r="CT27" t="inlineStr"/>
+      <c r="CU27" t="inlineStr"/>
+      <c r="CV27" t="inlineStr"/>
+      <c r="CW27" t="inlineStr"/>
+      <c r="CX27" t="inlineStr"/>
+      <c r="CY27" t="inlineStr"/>
+      <c r="CZ27" t="inlineStr"/>
+      <c r="DA27" t="inlineStr"/>
+      <c r="DB27" t="inlineStr"/>
+      <c r="DC27" t="inlineStr"/>
+      <c r="DD27" t="inlineStr"/>
+      <c r="DE27" t="inlineStr"/>
+      <c r="DF27" t="inlineStr"/>
+      <c r="DG27" t="inlineStr"/>
+      <c r="DH27" t="inlineStr"/>
+      <c r="DI27" t="inlineStr"/>
+      <c r="DJ27" t="inlineStr"/>
+      <c r="DK27" t="inlineStr"/>
+      <c r="DL27" t="inlineStr"/>
+      <c r="DM27" t="inlineStr"/>
+      <c r="DN27" t="inlineStr"/>
+      <c r="DO27" t="inlineStr"/>
+      <c r="DP27" t="inlineStr"/>
+      <c r="DQ27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5023120172</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>48</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>156424</v>
+      </c>
+      <c r="R28" t="n">
+        <v>653899622992</v>
+      </c>
+      <c r="S28" t="n">
+        <v>62299</v>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>CK WATER ART SEA CREATURES</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="inlineStr"/>
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr"/>
+      <c r="BB28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="inlineStr"/>
+      <c r="BF28" t="inlineStr"/>
+      <c r="BG28" t="inlineStr"/>
+      <c r="BH28" t="inlineStr"/>
+      <c r="BI28" t="inlineStr"/>
+      <c r="BJ28" t="inlineStr"/>
+      <c r="BK28" t="inlineStr"/>
+      <c r="BL28" t="inlineStr"/>
+      <c r="BM28" t="inlineStr"/>
+      <c r="BN28" t="inlineStr"/>
+      <c r="BO28" t="inlineStr"/>
+      <c r="BP28" t="inlineStr"/>
+      <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
+      <c r="BS28" t="inlineStr"/>
+      <c r="BT28" t="inlineStr"/>
+      <c r="BU28" t="inlineStr"/>
+      <c r="BV28" t="inlineStr"/>
+      <c r="BW28" t="inlineStr"/>
+      <c r="BX28" t="inlineStr"/>
+      <c r="BY28" t="inlineStr"/>
+      <c r="BZ28" t="inlineStr"/>
+      <c r="CA28" t="inlineStr"/>
+      <c r="CB28" t="inlineStr"/>
+      <c r="CC28" t="inlineStr"/>
+      <c r="CD28" t="inlineStr"/>
+      <c r="CE28" t="inlineStr"/>
+      <c r="CF28" t="inlineStr"/>
+      <c r="CG28" t="inlineStr"/>
+      <c r="CH28" t="inlineStr"/>
+      <c r="CI28" t="inlineStr"/>
+      <c r="CJ28" t="inlineStr"/>
+      <c r="CK28" t="inlineStr"/>
+      <c r="CL28" t="inlineStr"/>
+      <c r="CM28" t="inlineStr"/>
+      <c r="CN28" t="inlineStr"/>
+      <c r="CO28" t="inlineStr"/>
+      <c r="CP28" t="inlineStr"/>
+      <c r="CQ28" t="inlineStr"/>
+      <c r="CR28" t="inlineStr"/>
+      <c r="CS28" t="inlineStr"/>
+      <c r="CT28" t="inlineStr"/>
+      <c r="CU28" t="inlineStr"/>
+      <c r="CV28" t="inlineStr"/>
+      <c r="CW28" t="inlineStr"/>
+      <c r="CX28" t="inlineStr"/>
+      <c r="CY28" t="inlineStr"/>
+      <c r="CZ28" t="inlineStr"/>
+      <c r="DA28" t="inlineStr"/>
+      <c r="DB28" t="inlineStr"/>
+      <c r="DC28" t="inlineStr"/>
+      <c r="DD28" t="inlineStr"/>
+      <c r="DE28" t="inlineStr"/>
+      <c r="DF28" t="inlineStr"/>
+      <c r="DG28" t="inlineStr"/>
+      <c r="DH28" t="inlineStr"/>
+      <c r="DI28" t="inlineStr"/>
+      <c r="DJ28" t="inlineStr"/>
+      <c r="DK28" t="inlineStr"/>
+      <c r="DL28" t="inlineStr"/>
+      <c r="DM28" t="inlineStr"/>
+      <c r="DN28" t="inlineStr"/>
+      <c r="DO28" t="inlineStr"/>
+      <c r="DP28" t="inlineStr"/>
+      <c r="DQ28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5123120184</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5123120184</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>12/18/2023</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>51</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>Stand-alone Order</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="n">
+        <v>3833</v>
+      </c>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="inlineStr"/>
+      <c r="AY29" t="inlineStr"/>
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" t="inlineStr"/>
+      <c r="BC29" t="inlineStr">
+        <is>
+          <t>chris@creativekidsgroup.com.hk</t>
+        </is>
+      </c>
+      <c r="BD29" t="inlineStr"/>
+      <c r="BE29" t="inlineStr"/>
+      <c r="BF29" t="inlineStr"/>
+      <c r="BG29" t="inlineStr"/>
+      <c r="BH29" t="inlineStr"/>
+      <c r="BI29" t="inlineStr"/>
+      <c r="BJ29" t="inlineStr"/>
+      <c r="BK29" t="inlineStr">
+        <is>
+          <t>Buc-ees 51 Warner Robins GA</t>
+        </is>
+      </c>
+      <c r="BL29" t="inlineStr">
+        <is>
+          <t>7001 Russell Parkway</t>
+        </is>
+      </c>
+      <c r="BM29" t="inlineStr"/>
+      <c r="BN29" t="inlineStr">
+        <is>
+          <t>Fort Valley</t>
+        </is>
+      </c>
+      <c r="BO29" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="BP29" t="inlineStr">
+        <is>
+          <t>31030</t>
+        </is>
+      </c>
+      <c r="BQ29" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="BR29" t="inlineStr"/>
+      <c r="BS29" t="inlineStr"/>
+      <c r="BT29" t="inlineStr"/>
+      <c r="BU29" t="inlineStr"/>
+      <c r="BV29" t="inlineStr"/>
+      <c r="BW29" t="inlineStr"/>
+      <c r="BX29" t="inlineStr"/>
+      <c r="BY29" t="inlineStr"/>
+      <c r="BZ29" t="inlineStr"/>
+      <c r="CA29" t="inlineStr">
+        <is>
+          <t>Buc-ees Georgia LLC</t>
+        </is>
+      </c>
+      <c r="CB29" t="inlineStr"/>
+      <c r="CC29" t="inlineStr"/>
+      <c r="CD29" t="inlineStr"/>
+      <c r="CE29" t="inlineStr"/>
+      <c r="CF29" t="inlineStr"/>
+      <c r="CG29" t="inlineStr"/>
+      <c r="CH29" t="inlineStr"/>
+      <c r="CI29" t="inlineStr"/>
+      <c r="CJ29" t="inlineStr"/>
+      <c r="CK29" t="inlineStr"/>
+      <c r="CL29" t="inlineStr"/>
+      <c r="CM29" t="inlineStr"/>
+      <c r="CN29" t="inlineStr"/>
+      <c r="CO29" t="inlineStr"/>
+      <c r="CP29" t="inlineStr"/>
+      <c r="CQ29" t="inlineStr"/>
+      <c r="CR29" t="inlineStr"/>
+      <c r="CS29" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="CT29" t="inlineStr"/>
+      <c r="CU29" t="inlineStr"/>
+      <c r="CV29" t="inlineStr"/>
+      <c r="CW29" t="inlineStr"/>
+      <c r="CX29" t="inlineStr"/>
+      <c r="CY29" t="inlineStr"/>
+      <c r="CZ29" t="inlineStr"/>
+      <c r="DA29" t="inlineStr"/>
+      <c r="DB29" t="inlineStr"/>
+      <c r="DC29" t="inlineStr"/>
+      <c r="DD29" t="inlineStr"/>
+      <c r="DE29" t="inlineStr"/>
+      <c r="DF29" t="inlineStr"/>
+      <c r="DG29" t="inlineStr"/>
+      <c r="DH29" t="inlineStr"/>
+      <c r="DI29" t="inlineStr"/>
+      <c r="DJ29" t="inlineStr"/>
+      <c r="DK29" t="inlineStr"/>
+      <c r="DL29" t="inlineStr"/>
+      <c r="DM29" t="inlineStr"/>
+      <c r="DN29" t="inlineStr"/>
+      <c r="DO29" t="inlineStr"/>
+      <c r="DP29" t="inlineStr"/>
+      <c r="DQ29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5123120184</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>24</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>156423</v>
+      </c>
+      <c r="R30" t="n">
+        <v>653899622985</v>
+      </c>
+      <c r="S30" t="n">
+        <v>62298</v>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>CK WATER ART FARM</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr"/>
+      <c r="AY30" t="inlineStr"/>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr"/>
+      <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
+      <c r="BF30" t="inlineStr"/>
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr"/>
+      <c r="BI30" t="inlineStr"/>
+      <c r="BJ30" t="inlineStr"/>
+      <c r="BK30" t="inlineStr"/>
+      <c r="BL30" t="inlineStr"/>
+      <c r="BM30" t="inlineStr"/>
+      <c r="BN30" t="inlineStr"/>
+      <c r="BO30" t="inlineStr"/>
+      <c r="BP30" t="inlineStr"/>
+      <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
+      <c r="BS30" t="inlineStr"/>
+      <c r="BT30" t="inlineStr"/>
+      <c r="BU30" t="inlineStr"/>
+      <c r="BV30" t="inlineStr"/>
+      <c r="BW30" t="inlineStr"/>
+      <c r="BX30" t="inlineStr"/>
+      <c r="BY30" t="inlineStr"/>
+      <c r="BZ30" t="inlineStr"/>
+      <c r="CA30" t="inlineStr"/>
+      <c r="CB30" t="inlineStr"/>
+      <c r="CC30" t="inlineStr"/>
+      <c r="CD30" t="inlineStr"/>
+      <c r="CE30" t="inlineStr"/>
+      <c r="CF30" t="inlineStr"/>
+      <c r="CG30" t="inlineStr"/>
+      <c r="CH30" t="inlineStr"/>
+      <c r="CI30" t="inlineStr"/>
+      <c r="CJ30" t="inlineStr"/>
+      <c r="CK30" t="inlineStr"/>
+      <c r="CL30" t="inlineStr"/>
+      <c r="CM30" t="inlineStr"/>
+      <c r="CN30" t="inlineStr"/>
+      <c r="CO30" t="inlineStr"/>
+      <c r="CP30" t="inlineStr"/>
+      <c r="CQ30" t="inlineStr"/>
+      <c r="CR30" t="inlineStr"/>
+      <c r="CS30" t="inlineStr"/>
+      <c r="CT30" t="inlineStr"/>
+      <c r="CU30" t="inlineStr"/>
+      <c r="CV30" t="inlineStr"/>
+      <c r="CW30" t="inlineStr"/>
+      <c r="CX30" t="inlineStr"/>
+      <c r="CY30" t="inlineStr"/>
+      <c r="CZ30" t="inlineStr"/>
+      <c r="DA30" t="inlineStr"/>
+      <c r="DB30" t="inlineStr"/>
+      <c r="DC30" t="inlineStr"/>
+      <c r="DD30" t="inlineStr"/>
+      <c r="DE30" t="inlineStr"/>
+      <c r="DF30" t="inlineStr"/>
+      <c r="DG30" t="inlineStr"/>
+      <c r="DH30" t="inlineStr"/>
+      <c r="DI30" t="inlineStr"/>
+      <c r="DJ30" t="inlineStr"/>
+      <c r="DK30" t="inlineStr"/>
+      <c r="DL30" t="inlineStr"/>
+      <c r="DM30" t="inlineStr"/>
+      <c r="DN30" t="inlineStr"/>
+      <c r="DO30" t="inlineStr"/>
+      <c r="DP30" t="inlineStr"/>
+      <c r="DQ30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5123120184</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>24</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>156420</v>
+      </c>
+      <c r="R31" t="n">
+        <v>653899622954</v>
+      </c>
+      <c r="S31" t="n">
+        <v>62295</v>
+      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>CK WATER ART PRINCESSES</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr"/>
+      <c r="AX31" t="inlineStr"/>
+      <c r="AY31" t="inlineStr"/>
+      <c r="AZ31" t="inlineStr"/>
+      <c r="BA31" t="inlineStr"/>
+      <c r="BB31" t="inlineStr"/>
+      <c r="BC31" t="inlineStr"/>
+      <c r="BD31" t="inlineStr"/>
+      <c r="BE31" t="inlineStr"/>
+      <c r="BF31" t="inlineStr"/>
+      <c r="BG31" t="inlineStr"/>
+      <c r="BH31" t="inlineStr"/>
+      <c r="BI31" t="inlineStr"/>
+      <c r="BJ31" t="inlineStr"/>
+      <c r="BK31" t="inlineStr"/>
+      <c r="BL31" t="inlineStr"/>
+      <c r="BM31" t="inlineStr"/>
+      <c r="BN31" t="inlineStr"/>
+      <c r="BO31" t="inlineStr"/>
+      <c r="BP31" t="inlineStr"/>
+      <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
+      <c r="BS31" t="inlineStr"/>
+      <c r="BT31" t="inlineStr"/>
+      <c r="BU31" t="inlineStr"/>
+      <c r="BV31" t="inlineStr"/>
+      <c r="BW31" t="inlineStr"/>
+      <c r="BX31" t="inlineStr"/>
+      <c r="BY31" t="inlineStr"/>
+      <c r="BZ31" t="inlineStr"/>
+      <c r="CA31" t="inlineStr"/>
+      <c r="CB31" t="inlineStr"/>
+      <c r="CC31" t="inlineStr"/>
+      <c r="CD31" t="inlineStr"/>
+      <c r="CE31" t="inlineStr"/>
+      <c r="CF31" t="inlineStr"/>
+      <c r="CG31" t="inlineStr"/>
+      <c r="CH31" t="inlineStr"/>
+      <c r="CI31" t="inlineStr"/>
+      <c r="CJ31" t="inlineStr"/>
+      <c r="CK31" t="inlineStr"/>
+      <c r="CL31" t="inlineStr"/>
+      <c r="CM31" t="inlineStr"/>
+      <c r="CN31" t="inlineStr"/>
+      <c r="CO31" t="inlineStr"/>
+      <c r="CP31" t="inlineStr"/>
+      <c r="CQ31" t="inlineStr"/>
+      <c r="CR31" t="inlineStr"/>
+      <c r="CS31" t="inlineStr"/>
+      <c r="CT31" t="inlineStr"/>
+      <c r="CU31" t="inlineStr"/>
+      <c r="CV31" t="inlineStr"/>
+      <c r="CW31" t="inlineStr"/>
+      <c r="CX31" t="inlineStr"/>
+      <c r="CY31" t="inlineStr"/>
+      <c r="CZ31" t="inlineStr"/>
+      <c r="DA31" t="inlineStr"/>
+      <c r="DB31" t="inlineStr"/>
+      <c r="DC31" t="inlineStr"/>
+      <c r="DD31" t="inlineStr"/>
+      <c r="DE31" t="inlineStr"/>
+      <c r="DF31" t="inlineStr"/>
+      <c r="DG31" t="inlineStr"/>
+      <c r="DH31" t="inlineStr"/>
+      <c r="DI31" t="inlineStr"/>
+      <c r="DJ31" t="inlineStr"/>
+      <c r="DK31" t="inlineStr"/>
+      <c r="DL31" t="inlineStr"/>
+      <c r="DM31" t="inlineStr"/>
+      <c r="DN31" t="inlineStr"/>
+      <c r="DO31" t="inlineStr"/>
+      <c r="DP31" t="inlineStr"/>
+      <c r="DQ31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5223120180</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>5223120180</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>12/18/2023</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>52</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>Stand-alone Order</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="n">
+        <v>3833</v>
+      </c>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AU32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr"/>
+      <c r="AX32" t="inlineStr"/>
+      <c r="AY32" t="inlineStr"/>
+      <c r="AZ32" t="inlineStr"/>
+      <c r="BA32" t="inlineStr"/>
+      <c r="BB32" t="inlineStr"/>
+      <c r="BC32" t="inlineStr">
+        <is>
+          <t>chris@creativekidsgroup.com.hk</t>
+        </is>
+      </c>
+      <c r="BD32" t="inlineStr"/>
+      <c r="BE32" t="inlineStr"/>
+      <c r="BF32" t="inlineStr"/>
+      <c r="BG32" t="inlineStr"/>
+      <c r="BH32" t="inlineStr"/>
+      <c r="BI32" t="inlineStr"/>
+      <c r="BJ32" t="inlineStr"/>
+      <c r="BK32" t="inlineStr">
+        <is>
+          <t>Buc-ees 52 Calhoun GA</t>
+        </is>
+      </c>
+      <c r="BL32" t="inlineStr">
+        <is>
+          <t>601 Union Grove Rd SE</t>
+        </is>
+      </c>
+      <c r="BM32" t="inlineStr"/>
+      <c r="BN32" t="inlineStr">
+        <is>
+          <t>Adairsville</t>
+        </is>
+      </c>
+      <c r="BO32" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="BP32" t="inlineStr">
+        <is>
+          <t>30103</t>
+        </is>
+      </c>
+      <c r="BQ32" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="BR32" t="inlineStr"/>
+      <c r="BS32" t="inlineStr"/>
+      <c r="BT32" t="inlineStr"/>
+      <c r="BU32" t="inlineStr"/>
+      <c r="BV32" t="inlineStr"/>
+      <c r="BW32" t="inlineStr"/>
+      <c r="BX32" t="inlineStr"/>
+      <c r="BY32" t="inlineStr"/>
+      <c r="BZ32" t="inlineStr"/>
+      <c r="CA32" t="inlineStr">
+        <is>
+          <t>Buc-ees Georgia LLC</t>
+        </is>
+      </c>
+      <c r="CB32" t="inlineStr"/>
+      <c r="CC32" t="inlineStr"/>
+      <c r="CD32" t="inlineStr"/>
+      <c r="CE32" t="inlineStr"/>
+      <c r="CF32" t="inlineStr"/>
+      <c r="CG32" t="inlineStr"/>
+      <c r="CH32" t="inlineStr"/>
+      <c r="CI32" t="inlineStr"/>
+      <c r="CJ32" t="inlineStr"/>
+      <c r="CK32" t="inlineStr"/>
+      <c r="CL32" t="inlineStr"/>
+      <c r="CM32" t="inlineStr"/>
+      <c r="CN32" t="inlineStr"/>
+      <c r="CO32" t="inlineStr"/>
+      <c r="CP32" t="inlineStr"/>
+      <c r="CQ32" t="inlineStr"/>
+      <c r="CR32" t="inlineStr"/>
+      <c r="CS32" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="CT32" t="inlineStr"/>
+      <c r="CU32" t="inlineStr"/>
+      <c r="CV32" t="inlineStr"/>
+      <c r="CW32" t="inlineStr"/>
+      <c r="CX32" t="inlineStr"/>
+      <c r="CY32" t="inlineStr"/>
+      <c r="CZ32" t="inlineStr"/>
+      <c r="DA32" t="inlineStr"/>
+      <c r="DB32" t="inlineStr"/>
+      <c r="DC32" t="inlineStr"/>
+      <c r="DD32" t="inlineStr"/>
+      <c r="DE32" t="inlineStr"/>
+      <c r="DF32" t="inlineStr"/>
+      <c r="DG32" t="inlineStr"/>
+      <c r="DH32" t="inlineStr"/>
+      <c r="DI32" t="inlineStr"/>
+      <c r="DJ32" t="inlineStr"/>
+      <c r="DK32" t="inlineStr"/>
+      <c r="DL32" t="inlineStr"/>
+      <c r="DM32" t="inlineStr"/>
+      <c r="DN32" t="inlineStr"/>
+      <c r="DO32" t="inlineStr"/>
+      <c r="DP32" t="inlineStr"/>
+      <c r="DQ32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5223120180</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>24</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>156423</v>
+      </c>
+      <c r="R33" t="n">
+        <v>653899622985</v>
+      </c>
+      <c r="S33" t="n">
+        <v>62298</v>
+      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>CK WATER ART FARM</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AU33" t="inlineStr"/>
+      <c r="AV33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr"/>
+      <c r="AX33" t="inlineStr"/>
+      <c r="AY33" t="inlineStr"/>
+      <c r="AZ33" t="inlineStr"/>
+      <c r="BA33" t="inlineStr"/>
+      <c r="BB33" t="inlineStr"/>
+      <c r="BC33" t="inlineStr"/>
+      <c r="BD33" t="inlineStr"/>
+      <c r="BE33" t="inlineStr"/>
+      <c r="BF33" t="inlineStr"/>
+      <c r="BG33" t="inlineStr"/>
+      <c r="BH33" t="inlineStr"/>
+      <c r="BI33" t="inlineStr"/>
+      <c r="BJ33" t="inlineStr"/>
+      <c r="BK33" t="inlineStr"/>
+      <c r="BL33" t="inlineStr"/>
+      <c r="BM33" t="inlineStr"/>
+      <c r="BN33" t="inlineStr"/>
+      <c r="BO33" t="inlineStr"/>
+      <c r="BP33" t="inlineStr"/>
+      <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
+      <c r="BS33" t="inlineStr"/>
+      <c r="BT33" t="inlineStr"/>
+      <c r="BU33" t="inlineStr"/>
+      <c r="BV33" t="inlineStr"/>
+      <c r="BW33" t="inlineStr"/>
+      <c r="BX33" t="inlineStr"/>
+      <c r="BY33" t="inlineStr"/>
+      <c r="BZ33" t="inlineStr"/>
+      <c r="CA33" t="inlineStr"/>
+      <c r="CB33" t="inlineStr"/>
+      <c r="CC33" t="inlineStr"/>
+      <c r="CD33" t="inlineStr"/>
+      <c r="CE33" t="inlineStr"/>
+      <c r="CF33" t="inlineStr"/>
+      <c r="CG33" t="inlineStr"/>
+      <c r="CH33" t="inlineStr"/>
+      <c r="CI33" t="inlineStr"/>
+      <c r="CJ33" t="inlineStr"/>
+      <c r="CK33" t="inlineStr"/>
+      <c r="CL33" t="inlineStr"/>
+      <c r="CM33" t="inlineStr"/>
+      <c r="CN33" t="inlineStr"/>
+      <c r="CO33" t="inlineStr"/>
+      <c r="CP33" t="inlineStr"/>
+      <c r="CQ33" t="inlineStr"/>
+      <c r="CR33" t="inlineStr"/>
+      <c r="CS33" t="inlineStr"/>
+      <c r="CT33" t="inlineStr"/>
+      <c r="CU33" t="inlineStr"/>
+      <c r="CV33" t="inlineStr"/>
+      <c r="CW33" t="inlineStr"/>
+      <c r="CX33" t="inlineStr"/>
+      <c r="CY33" t="inlineStr"/>
+      <c r="CZ33" t="inlineStr"/>
+      <c r="DA33" t="inlineStr"/>
+      <c r="DB33" t="inlineStr"/>
+      <c r="DC33" t="inlineStr"/>
+      <c r="DD33" t="inlineStr"/>
+      <c r="DE33" t="inlineStr"/>
+      <c r="DF33" t="inlineStr"/>
+      <c r="DG33" t="inlineStr"/>
+      <c r="DH33" t="inlineStr"/>
+      <c r="DI33" t="inlineStr"/>
+      <c r="DJ33" t="inlineStr"/>
+      <c r="DK33" t="inlineStr"/>
+      <c r="DL33" t="inlineStr"/>
+      <c r="DM33" t="inlineStr"/>
+      <c r="DN33" t="inlineStr"/>
+      <c r="DO33" t="inlineStr"/>
+      <c r="DP33" t="inlineStr"/>
+      <c r="DQ33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5223120180</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>24</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>156420</v>
+      </c>
+      <c r="R34" t="n">
+        <v>653899622954</v>
+      </c>
+      <c r="S34" t="n">
+        <v>62295</v>
+      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>CK WATER ART PRINCESSES</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AU34" t="inlineStr"/>
+      <c r="AV34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr"/>
+      <c r="AX34" t="inlineStr"/>
+      <c r="AY34" t="inlineStr"/>
+      <c r="AZ34" t="inlineStr"/>
+      <c r="BA34" t="inlineStr"/>
+      <c r="BB34" t="inlineStr"/>
+      <c r="BC34" t="inlineStr"/>
+      <c r="BD34" t="inlineStr"/>
+      <c r="BE34" t="inlineStr"/>
+      <c r="BF34" t="inlineStr"/>
+      <c r="BG34" t="inlineStr"/>
+      <c r="BH34" t="inlineStr"/>
+      <c r="BI34" t="inlineStr"/>
+      <c r="BJ34" t="inlineStr"/>
+      <c r="BK34" t="inlineStr"/>
+      <c r="BL34" t="inlineStr"/>
+      <c r="BM34" t="inlineStr"/>
+      <c r="BN34" t="inlineStr"/>
+      <c r="BO34" t="inlineStr"/>
+      <c r="BP34" t="inlineStr"/>
+      <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
+      <c r="BS34" t="inlineStr"/>
+      <c r="BT34" t="inlineStr"/>
+      <c r="BU34" t="inlineStr"/>
+      <c r="BV34" t="inlineStr"/>
+      <c r="BW34" t="inlineStr"/>
+      <c r="BX34" t="inlineStr"/>
+      <c r="BY34" t="inlineStr"/>
+      <c r="BZ34" t="inlineStr"/>
+      <c r="CA34" t="inlineStr"/>
+      <c r="CB34" t="inlineStr"/>
+      <c r="CC34" t="inlineStr"/>
+      <c r="CD34" t="inlineStr"/>
+      <c r="CE34" t="inlineStr"/>
+      <c r="CF34" t="inlineStr"/>
+      <c r="CG34" t="inlineStr"/>
+      <c r="CH34" t="inlineStr"/>
+      <c r="CI34" t="inlineStr"/>
+      <c r="CJ34" t="inlineStr"/>
+      <c r="CK34" t="inlineStr"/>
+      <c r="CL34" t="inlineStr"/>
+      <c r="CM34" t="inlineStr"/>
+      <c r="CN34" t="inlineStr"/>
+      <c r="CO34" t="inlineStr"/>
+      <c r="CP34" t="inlineStr"/>
+      <c r="CQ34" t="inlineStr"/>
+      <c r="CR34" t="inlineStr"/>
+      <c r="CS34" t="inlineStr"/>
+      <c r="CT34" t="inlineStr"/>
+      <c r="CU34" t="inlineStr"/>
+      <c r="CV34" t="inlineStr"/>
+      <c r="CW34" t="inlineStr"/>
+      <c r="CX34" t="inlineStr"/>
+      <c r="CY34" t="inlineStr"/>
+      <c r="CZ34" t="inlineStr"/>
+      <c r="DA34" t="inlineStr"/>
+      <c r="DB34" t="inlineStr"/>
+      <c r="DC34" t="inlineStr"/>
+      <c r="DD34" t="inlineStr"/>
+      <c r="DE34" t="inlineStr"/>
+      <c r="DF34" t="inlineStr"/>
+      <c r="DG34" t="inlineStr"/>
+      <c r="DH34" t="inlineStr"/>
+      <c r="DI34" t="inlineStr"/>
+      <c r="DJ34" t="inlineStr"/>
+      <c r="DK34" t="inlineStr"/>
+      <c r="DL34" t="inlineStr"/>
+      <c r="DM34" t="inlineStr"/>
+      <c r="DN34" t="inlineStr"/>
+      <c r="DO34" t="inlineStr"/>
+      <c r="DP34" t="inlineStr"/>
+      <c r="DQ34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5223120180</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="n">
+        <v>24</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>156424</v>
+      </c>
+      <c r="R35" t="n">
+        <v>653899622992</v>
+      </c>
+      <c r="S35" t="n">
+        <v>62299</v>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>CK WATER ART SEA CREATURES</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr"/>
+      <c r="AX35" t="inlineStr"/>
+      <c r="AY35" t="inlineStr"/>
+      <c r="AZ35" t="inlineStr"/>
+      <c r="BA35" t="inlineStr"/>
+      <c r="BB35" t="inlineStr"/>
+      <c r="BC35" t="inlineStr"/>
+      <c r="BD35" t="inlineStr"/>
+      <c r="BE35" t="inlineStr"/>
+      <c r="BF35" t="inlineStr"/>
+      <c r="BG35" t="inlineStr"/>
+      <c r="BH35" t="inlineStr"/>
+      <c r="BI35" t="inlineStr"/>
+      <c r="BJ35" t="inlineStr"/>
+      <c r="BK35" t="inlineStr"/>
+      <c r="BL35" t="inlineStr"/>
+      <c r="BM35" t="inlineStr"/>
+      <c r="BN35" t="inlineStr"/>
+      <c r="BO35" t="inlineStr"/>
+      <c r="BP35" t="inlineStr"/>
+      <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
+      <c r="BS35" t="inlineStr"/>
+      <c r="BT35" t="inlineStr"/>
+      <c r="BU35" t="inlineStr"/>
+      <c r="BV35" t="inlineStr"/>
+      <c r="BW35" t="inlineStr"/>
+      <c r="BX35" t="inlineStr"/>
+      <c r="BY35" t="inlineStr"/>
+      <c r="BZ35" t="inlineStr"/>
+      <c r="CA35" t="inlineStr"/>
+      <c r="CB35" t="inlineStr"/>
+      <c r="CC35" t="inlineStr"/>
+      <c r="CD35" t="inlineStr"/>
+      <c r="CE35" t="inlineStr"/>
+      <c r="CF35" t="inlineStr"/>
+      <c r="CG35" t="inlineStr"/>
+      <c r="CH35" t="inlineStr"/>
+      <c r="CI35" t="inlineStr"/>
+      <c r="CJ35" t="inlineStr"/>
+      <c r="CK35" t="inlineStr"/>
+      <c r="CL35" t="inlineStr"/>
+      <c r="CM35" t="inlineStr"/>
+      <c r="CN35" t="inlineStr"/>
+      <c r="CO35" t="inlineStr"/>
+      <c r="CP35" t="inlineStr"/>
+      <c r="CQ35" t="inlineStr"/>
+      <c r="CR35" t="inlineStr"/>
+      <c r="CS35" t="inlineStr"/>
+      <c r="CT35" t="inlineStr"/>
+      <c r="CU35" t="inlineStr"/>
+      <c r="CV35" t="inlineStr"/>
+      <c r="CW35" t="inlineStr"/>
+      <c r="CX35" t="inlineStr"/>
+      <c r="CY35" t="inlineStr"/>
+      <c r="CZ35" t="inlineStr"/>
+      <c r="DA35" t="inlineStr"/>
+      <c r="DB35" t="inlineStr"/>
+      <c r="DC35" t="inlineStr"/>
+      <c r="DD35" t="inlineStr"/>
+      <c r="DE35" t="inlineStr"/>
+      <c r="DF35" t="inlineStr"/>
+      <c r="DG35" t="inlineStr"/>
+      <c r="DH35" t="inlineStr"/>
+      <c r="DI35" t="inlineStr"/>
+      <c r="DJ35" t="inlineStr"/>
+      <c r="DK35" t="inlineStr"/>
+      <c r="DL35" t="inlineStr"/>
+      <c r="DM35" t="inlineStr"/>
+      <c r="DN35" t="inlineStr"/>
+      <c r="DO35" t="inlineStr"/>
+      <c r="DP35" t="inlineStr"/>
+      <c r="DQ35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5523120168</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>5523120168</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>12/18/2023</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>55</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>Stand-alone Order</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="n">
+        <v>3833</v>
+      </c>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AU36" t="inlineStr"/>
+      <c r="AV36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr"/>
+      <c r="AX36" t="inlineStr"/>
+      <c r="AY36" t="inlineStr"/>
+      <c r="AZ36" t="inlineStr"/>
+      <c r="BA36" t="inlineStr"/>
+      <c r="BB36" t="inlineStr"/>
+      <c r="BC36" t="inlineStr">
+        <is>
+          <t>chris@creativekidsgroup.com.hk</t>
+        </is>
+      </c>
+      <c r="BD36" t="inlineStr"/>
+      <c r="BE36" t="inlineStr"/>
+      <c r="BF36" t="inlineStr"/>
+      <c r="BG36" t="inlineStr"/>
+      <c r="BH36" t="inlineStr"/>
+      <c r="BI36" t="inlineStr"/>
+      <c r="BJ36" t="inlineStr"/>
+      <c r="BK36" t="inlineStr">
+        <is>
+          <t>Buc-ees 55 Richmond KY</t>
+        </is>
+      </c>
+      <c r="BL36" t="inlineStr">
+        <is>
+          <t>1013 Buc-ees Boulevard</t>
+        </is>
+      </c>
+      <c r="BM36" t="inlineStr"/>
+      <c r="BN36" t="inlineStr">
+        <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="BO36" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="BP36" t="inlineStr">
+        <is>
+          <t>40475</t>
+        </is>
+      </c>
+      <c r="BQ36" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="BR36" t="inlineStr"/>
+      <c r="BS36" t="inlineStr"/>
+      <c r="BT36" t="inlineStr"/>
+      <c r="BU36" t="inlineStr"/>
+      <c r="BV36" t="inlineStr"/>
+      <c r="BW36" t="inlineStr"/>
+      <c r="BX36" t="inlineStr"/>
+      <c r="BY36" t="inlineStr"/>
+      <c r="BZ36" t="inlineStr"/>
+      <c r="CA36" t="inlineStr">
+        <is>
+          <t>Buc-ees Kentucky LLC</t>
+        </is>
+      </c>
+      <c r="CB36" t="inlineStr"/>
+      <c r="CC36" t="inlineStr"/>
+      <c r="CD36" t="inlineStr"/>
+      <c r="CE36" t="inlineStr"/>
+      <c r="CF36" t="inlineStr"/>
+      <c r="CG36" t="inlineStr"/>
+      <c r="CH36" t="inlineStr"/>
+      <c r="CI36" t="inlineStr"/>
+      <c r="CJ36" t="inlineStr"/>
+      <c r="CK36" t="inlineStr"/>
+      <c r="CL36" t="inlineStr"/>
+      <c r="CM36" t="inlineStr"/>
+      <c r="CN36" t="inlineStr"/>
+      <c r="CO36" t="inlineStr"/>
+      <c r="CP36" t="inlineStr"/>
+      <c r="CQ36" t="inlineStr"/>
+      <c r="CR36" t="inlineStr"/>
+      <c r="CS36" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="CT36" t="inlineStr"/>
+      <c r="CU36" t="inlineStr"/>
+      <c r="CV36" t="inlineStr"/>
+      <c r="CW36" t="inlineStr"/>
+      <c r="CX36" t="inlineStr"/>
+      <c r="CY36" t="inlineStr"/>
+      <c r="CZ36" t="inlineStr"/>
+      <c r="DA36" t="inlineStr"/>
+      <c r="DB36" t="inlineStr"/>
+      <c r="DC36" t="inlineStr"/>
+      <c r="DD36" t="inlineStr"/>
+      <c r="DE36" t="inlineStr"/>
+      <c r="DF36" t="inlineStr"/>
+      <c r="DG36" t="inlineStr"/>
+      <c r="DH36" t="inlineStr"/>
+      <c r="DI36" t="inlineStr"/>
+      <c r="DJ36" t="inlineStr"/>
+      <c r="DK36" t="inlineStr"/>
+      <c r="DL36" t="inlineStr"/>
+      <c r="DM36" t="inlineStr"/>
+      <c r="DN36" t="inlineStr"/>
+      <c r="DO36" t="inlineStr"/>
+      <c r="DP36" t="inlineStr"/>
+      <c r="DQ36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5523120168</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>24</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>156422</v>
+      </c>
+      <c r="R37" t="n">
+        <v>653899622978</v>
+      </c>
+      <c r="S37" t="n">
+        <v>62297</v>
+      </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>CK WATER ART CONSTRUCTION</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AU37" t="inlineStr"/>
+      <c r="AV37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr"/>
+      <c r="AX37" t="inlineStr"/>
+      <c r="AY37" t="inlineStr"/>
+      <c r="AZ37" t="inlineStr"/>
+      <c r="BA37" t="inlineStr"/>
+      <c r="BB37" t="inlineStr"/>
+      <c r="BC37" t="inlineStr"/>
+      <c r="BD37" t="inlineStr"/>
+      <c r="BE37" t="inlineStr"/>
+      <c r="BF37" t="inlineStr"/>
+      <c r="BG37" t="inlineStr"/>
+      <c r="BH37" t="inlineStr"/>
+      <c r="BI37" t="inlineStr"/>
+      <c r="BJ37" t="inlineStr"/>
+      <c r="BK37" t="inlineStr"/>
+      <c r="BL37" t="inlineStr"/>
+      <c r="BM37" t="inlineStr"/>
+      <c r="BN37" t="inlineStr"/>
+      <c r="BO37" t="inlineStr"/>
+      <c r="BP37" t="inlineStr"/>
+      <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
+      <c r="BS37" t="inlineStr"/>
+      <c r="BT37" t="inlineStr"/>
+      <c r="BU37" t="inlineStr"/>
+      <c r="BV37" t="inlineStr"/>
+      <c r="BW37" t="inlineStr"/>
+      <c r="BX37" t="inlineStr"/>
+      <c r="BY37" t="inlineStr"/>
+      <c r="BZ37" t="inlineStr"/>
+      <c r="CA37" t="inlineStr"/>
+      <c r="CB37" t="inlineStr"/>
+      <c r="CC37" t="inlineStr"/>
+      <c r="CD37" t="inlineStr"/>
+      <c r="CE37" t="inlineStr"/>
+      <c r="CF37" t="inlineStr"/>
+      <c r="CG37" t="inlineStr"/>
+      <c r="CH37" t="inlineStr"/>
+      <c r="CI37" t="inlineStr"/>
+      <c r="CJ37" t="inlineStr"/>
+      <c r="CK37" t="inlineStr"/>
+      <c r="CL37" t="inlineStr"/>
+      <c r="CM37" t="inlineStr"/>
+      <c r="CN37" t="inlineStr"/>
+      <c r="CO37" t="inlineStr"/>
+      <c r="CP37" t="inlineStr"/>
+      <c r="CQ37" t="inlineStr"/>
+      <c r="CR37" t="inlineStr"/>
+      <c r="CS37" t="inlineStr"/>
+      <c r="CT37" t="inlineStr"/>
+      <c r="CU37" t="inlineStr"/>
+      <c r="CV37" t="inlineStr"/>
+      <c r="CW37" t="inlineStr"/>
+      <c r="CX37" t="inlineStr"/>
+      <c r="CY37" t="inlineStr"/>
+      <c r="CZ37" t="inlineStr"/>
+      <c r="DA37" t="inlineStr"/>
+      <c r="DB37" t="inlineStr"/>
+      <c r="DC37" t="inlineStr"/>
+      <c r="DD37" t="inlineStr"/>
+      <c r="DE37" t="inlineStr"/>
+      <c r="DF37" t="inlineStr"/>
+      <c r="DG37" t="inlineStr"/>
+      <c r="DH37" t="inlineStr"/>
+      <c r="DI37" t="inlineStr"/>
+      <c r="DJ37" t="inlineStr"/>
+      <c r="DK37" t="inlineStr"/>
+      <c r="DL37" t="inlineStr"/>
+      <c r="DM37" t="inlineStr"/>
+      <c r="DN37" t="inlineStr"/>
+      <c r="DO37" t="inlineStr"/>
+      <c r="DP37" t="inlineStr"/>
+      <c r="DQ37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5523120168</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>24</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>156424</v>
+      </c>
+      <c r="R38" t="n">
+        <v>653899622992</v>
+      </c>
+      <c r="S38" t="n">
+        <v>62299</v>
+      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>CK WATER ART SEA CREATURES</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AU38" t="inlineStr"/>
+      <c r="AV38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr"/>
+      <c r="AX38" t="inlineStr"/>
+      <c r="AY38" t="inlineStr"/>
+      <c r="AZ38" t="inlineStr"/>
+      <c r="BA38" t="inlineStr"/>
+      <c r="BB38" t="inlineStr"/>
+      <c r="BC38" t="inlineStr"/>
+      <c r="BD38" t="inlineStr"/>
+      <c r="BE38" t="inlineStr"/>
+      <c r="BF38" t="inlineStr"/>
+      <c r="BG38" t="inlineStr"/>
+      <c r="BH38" t="inlineStr"/>
+      <c r="BI38" t="inlineStr"/>
+      <c r="BJ38" t="inlineStr"/>
+      <c r="BK38" t="inlineStr"/>
+      <c r="BL38" t="inlineStr"/>
+      <c r="BM38" t="inlineStr"/>
+      <c r="BN38" t="inlineStr"/>
+      <c r="BO38" t="inlineStr"/>
+      <c r="BP38" t="inlineStr"/>
+      <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
+      <c r="BS38" t="inlineStr"/>
+      <c r="BT38" t="inlineStr"/>
+      <c r="BU38" t="inlineStr"/>
+      <c r="BV38" t="inlineStr"/>
+      <c r="BW38" t="inlineStr"/>
+      <c r="BX38" t="inlineStr"/>
+      <c r="BY38" t="inlineStr"/>
+      <c r="BZ38" t="inlineStr"/>
+      <c r="CA38" t="inlineStr"/>
+      <c r="CB38" t="inlineStr"/>
+      <c r="CC38" t="inlineStr"/>
+      <c r="CD38" t="inlineStr"/>
+      <c r="CE38" t="inlineStr"/>
+      <c r="CF38" t="inlineStr"/>
+      <c r="CG38" t="inlineStr"/>
+      <c r="CH38" t="inlineStr"/>
+      <c r="CI38" t="inlineStr"/>
+      <c r="CJ38" t="inlineStr"/>
+      <c r="CK38" t="inlineStr"/>
+      <c r="CL38" t="inlineStr"/>
+      <c r="CM38" t="inlineStr"/>
+      <c r="CN38" t="inlineStr"/>
+      <c r="CO38" t="inlineStr"/>
+      <c r="CP38" t="inlineStr"/>
+      <c r="CQ38" t="inlineStr"/>
+      <c r="CR38" t="inlineStr"/>
+      <c r="CS38" t="inlineStr"/>
+      <c r="CT38" t="inlineStr"/>
+      <c r="CU38" t="inlineStr"/>
+      <c r="CV38" t="inlineStr"/>
+      <c r="CW38" t="inlineStr"/>
+      <c r="CX38" t="inlineStr"/>
+      <c r="CY38" t="inlineStr"/>
+      <c r="CZ38" t="inlineStr"/>
+      <c r="DA38" t="inlineStr"/>
+      <c r="DB38" t="inlineStr"/>
+      <c r="DC38" t="inlineStr"/>
+      <c r="DD38" t="inlineStr"/>
+      <c r="DE38" t="inlineStr"/>
+      <c r="DF38" t="inlineStr"/>
+      <c r="DG38" t="inlineStr"/>
+      <c r="DH38" t="inlineStr"/>
+      <c r="DI38" t="inlineStr"/>
+      <c r="DJ38" t="inlineStr"/>
+      <c r="DK38" t="inlineStr"/>
+      <c r="DL38" t="inlineStr"/>
+      <c r="DM38" t="inlineStr"/>
+      <c r="DN38" t="inlineStr"/>
+      <c r="DO38" t="inlineStr"/>
+      <c r="DP38" t="inlineStr"/>
+      <c r="DQ38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5723120175</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5723120175</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>12/18/2023</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>57</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>Stand-alone Order</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="n">
+        <v>3833</v>
+      </c>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AU39" t="inlineStr"/>
+      <c r="AV39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr"/>
+      <c r="AX39" t="inlineStr"/>
+      <c r="AY39" t="inlineStr"/>
+      <c r="AZ39" t="inlineStr"/>
+      <c r="BA39" t="inlineStr"/>
+      <c r="BB39" t="inlineStr"/>
+      <c r="BC39" t="inlineStr">
+        <is>
+          <t>chris@creativekidsgroup.com.hk</t>
+        </is>
+      </c>
+      <c r="BD39" t="inlineStr"/>
+      <c r="BE39" t="inlineStr"/>
+      <c r="BF39" t="inlineStr"/>
+      <c r="BG39" t="inlineStr"/>
+      <c r="BH39" t="inlineStr"/>
+      <c r="BI39" t="inlineStr"/>
+      <c r="BJ39" t="inlineStr"/>
+      <c r="BK39" t="inlineStr">
+        <is>
+          <t>Buc-ees 57 Athens AL</t>
+        </is>
+      </c>
+      <c r="BL39" t="inlineStr">
+        <is>
+          <t>2328 Lindsay Lane South</t>
+        </is>
+      </c>
+      <c r="BM39" t="inlineStr"/>
+      <c r="BN39" t="inlineStr">
+        <is>
+          <t>Athens</t>
+        </is>
+      </c>
+      <c r="BO39" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="BP39" t="inlineStr">
+        <is>
+          <t>35613-8034</t>
+        </is>
+      </c>
+      <c r="BQ39" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="BR39" t="inlineStr"/>
+      <c r="BS39" t="inlineStr"/>
+      <c r="BT39" t="inlineStr"/>
+      <c r="BU39" t="inlineStr"/>
+      <c r="BV39" t="inlineStr"/>
+      <c r="BW39" t="inlineStr"/>
+      <c r="BX39" t="inlineStr"/>
+      <c r="BY39" t="inlineStr"/>
+      <c r="BZ39" t="inlineStr"/>
+      <c r="CA39" t="inlineStr">
+        <is>
+          <t>Buc-ees Alabama II LLC</t>
+        </is>
+      </c>
+      <c r="CB39" t="inlineStr"/>
+      <c r="CC39" t="inlineStr"/>
+      <c r="CD39" t="inlineStr"/>
+      <c r="CE39" t="inlineStr"/>
+      <c r="CF39" t="inlineStr"/>
+      <c r="CG39" t="inlineStr"/>
+      <c r="CH39" t="inlineStr"/>
+      <c r="CI39" t="inlineStr"/>
+      <c r="CJ39" t="inlineStr"/>
+      <c r="CK39" t="inlineStr"/>
+      <c r="CL39" t="inlineStr"/>
+      <c r="CM39" t="inlineStr"/>
+      <c r="CN39" t="inlineStr"/>
+      <c r="CO39" t="inlineStr"/>
+      <c r="CP39" t="inlineStr"/>
+      <c r="CQ39" t="inlineStr"/>
+      <c r="CR39" t="inlineStr"/>
+      <c r="CS39" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="CT39" t="inlineStr"/>
+      <c r="CU39" t="inlineStr"/>
+      <c r="CV39" t="inlineStr"/>
+      <c r="CW39" t="inlineStr"/>
+      <c r="CX39" t="inlineStr"/>
+      <c r="CY39" t="inlineStr"/>
+      <c r="CZ39" t="inlineStr"/>
+      <c r="DA39" t="inlineStr"/>
+      <c r="DB39" t="inlineStr"/>
+      <c r="DC39" t="inlineStr"/>
+      <c r="DD39" t="inlineStr"/>
+      <c r="DE39" t="inlineStr"/>
+      <c r="DF39" t="inlineStr"/>
+      <c r="DG39" t="inlineStr"/>
+      <c r="DH39" t="inlineStr"/>
+      <c r="DI39" t="inlineStr"/>
+      <c r="DJ39" t="inlineStr"/>
+      <c r="DK39" t="inlineStr"/>
+      <c r="DL39" t="inlineStr"/>
+      <c r="DM39" t="inlineStr"/>
+      <c r="DN39" t="inlineStr"/>
+      <c r="DO39" t="inlineStr"/>
+      <c r="DP39" t="inlineStr"/>
+      <c r="DQ39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5723120175</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>48</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>156420</v>
+      </c>
+      <c r="R40" t="n">
+        <v>653899622954</v>
+      </c>
+      <c r="S40" t="n">
+        <v>62295</v>
+      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>CK WATER ART PRINCESSES</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AU40" t="inlineStr"/>
+      <c r="AV40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr"/>
+      <c r="AX40" t="inlineStr"/>
+      <c r="AY40" t="inlineStr"/>
+      <c r="AZ40" t="inlineStr"/>
+      <c r="BA40" t="inlineStr"/>
+      <c r="BB40" t="inlineStr"/>
+      <c r="BC40" t="inlineStr"/>
+      <c r="BD40" t="inlineStr"/>
+      <c r="BE40" t="inlineStr"/>
+      <c r="BF40" t="inlineStr"/>
+      <c r="BG40" t="inlineStr"/>
+      <c r="BH40" t="inlineStr"/>
+      <c r="BI40" t="inlineStr"/>
+      <c r="BJ40" t="inlineStr"/>
+      <c r="BK40" t="inlineStr"/>
+      <c r="BL40" t="inlineStr"/>
+      <c r="BM40" t="inlineStr"/>
+      <c r="BN40" t="inlineStr"/>
+      <c r="BO40" t="inlineStr"/>
+      <c r="BP40" t="inlineStr"/>
+      <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
+      <c r="BS40" t="inlineStr"/>
+      <c r="BT40" t="inlineStr"/>
+      <c r="BU40" t="inlineStr"/>
+      <c r="BV40" t="inlineStr"/>
+      <c r="BW40" t="inlineStr"/>
+      <c r="BX40" t="inlineStr"/>
+      <c r="BY40" t="inlineStr"/>
+      <c r="BZ40" t="inlineStr"/>
+      <c r="CA40" t="inlineStr"/>
+      <c r="CB40" t="inlineStr"/>
+      <c r="CC40" t="inlineStr"/>
+      <c r="CD40" t="inlineStr"/>
+      <c r="CE40" t="inlineStr"/>
+      <c r="CF40" t="inlineStr"/>
+      <c r="CG40" t="inlineStr"/>
+      <c r="CH40" t="inlineStr"/>
+      <c r="CI40" t="inlineStr"/>
+      <c r="CJ40" t="inlineStr"/>
+      <c r="CK40" t="inlineStr"/>
+      <c r="CL40" t="inlineStr"/>
+      <c r="CM40" t="inlineStr"/>
+      <c r="CN40" t="inlineStr"/>
+      <c r="CO40" t="inlineStr"/>
+      <c r="CP40" t="inlineStr"/>
+      <c r="CQ40" t="inlineStr"/>
+      <c r="CR40" t="inlineStr"/>
+      <c r="CS40" t="inlineStr"/>
+      <c r="CT40" t="inlineStr"/>
+      <c r="CU40" t="inlineStr"/>
+      <c r="CV40" t="inlineStr"/>
+      <c r="CW40" t="inlineStr"/>
+      <c r="CX40" t="inlineStr"/>
+      <c r="CY40" t="inlineStr"/>
+      <c r="CZ40" t="inlineStr"/>
+      <c r="DA40" t="inlineStr"/>
+      <c r="DB40" t="inlineStr"/>
+      <c r="DC40" t="inlineStr"/>
+      <c r="DD40" t="inlineStr"/>
+      <c r="DE40" t="inlineStr"/>
+      <c r="DF40" t="inlineStr"/>
+      <c r="DG40" t="inlineStr"/>
+      <c r="DH40" t="inlineStr"/>
+      <c r="DI40" t="inlineStr"/>
+      <c r="DJ40" t="inlineStr"/>
+      <c r="DK40" t="inlineStr"/>
+      <c r="DL40" t="inlineStr"/>
+      <c r="DM40" t="inlineStr"/>
+      <c r="DN40" t="inlineStr"/>
+      <c r="DO40" t="inlineStr"/>
+      <c r="DP40" t="inlineStr"/>
+      <c r="DQ40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5723120175</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Toys-Toys-Arts/Crafts</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="n">
+        <v>24</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>156419</v>
+      </c>
+      <c r="R41" t="n">
+        <v>653899622947</v>
+      </c>
+      <c r="S41" t="n">
+        <v>62294</v>
+      </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>CK WATER ART SPACE</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AU41" t="inlineStr"/>
+      <c r="AV41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr"/>
+      <c r="AX41" t="inlineStr"/>
+      <c r="AY41" t="inlineStr"/>
+      <c r="AZ41" t="inlineStr"/>
+      <c r="BA41" t="inlineStr"/>
+      <c r="BB41" t="inlineStr"/>
+      <c r="BC41" t="inlineStr"/>
+      <c r="BD41" t="inlineStr"/>
+      <c r="BE41" t="inlineStr"/>
+      <c r="BF41" t="inlineStr"/>
+      <c r="BG41" t="inlineStr"/>
+      <c r="BH41" t="inlineStr"/>
+      <c r="BI41" t="inlineStr"/>
+      <c r="BJ41" t="inlineStr"/>
+      <c r="BK41" t="inlineStr"/>
+      <c r="BL41" t="inlineStr"/>
+      <c r="BM41" t="inlineStr"/>
+      <c r="BN41" t="inlineStr"/>
+      <c r="BO41" t="inlineStr"/>
+      <c r="BP41" t="inlineStr"/>
+      <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
+      <c r="BS41" t="inlineStr"/>
+      <c r="BT41" t="inlineStr"/>
+      <c r="BU41" t="inlineStr"/>
+      <c r="BV41" t="inlineStr"/>
+      <c r="BW41" t="inlineStr"/>
+      <c r="BX41" t="inlineStr"/>
+      <c r="BY41" t="inlineStr"/>
+      <c r="BZ41" t="inlineStr"/>
+      <c r="CA41" t="inlineStr"/>
+      <c r="CB41" t="inlineStr"/>
+      <c r="CC41" t="inlineStr"/>
+      <c r="CD41" t="inlineStr"/>
+      <c r="CE41" t="inlineStr"/>
+      <c r="CF41" t="inlineStr"/>
+      <c r="CG41" t="inlineStr"/>
+      <c r="CH41" t="inlineStr"/>
+      <c r="CI41" t="inlineStr"/>
+      <c r="CJ41" t="inlineStr"/>
+      <c r="CK41" t="inlineStr"/>
+      <c r="CL41" t="inlineStr"/>
+      <c r="CM41" t="inlineStr"/>
+      <c r="CN41" t="inlineStr"/>
+      <c r="CO41" t="inlineStr"/>
+      <c r="CP41" t="inlineStr"/>
+      <c r="CQ41" t="inlineStr"/>
+      <c r="CR41" t="inlineStr"/>
+      <c r="CS41" t="inlineStr"/>
+      <c r="CT41" t="inlineStr"/>
+      <c r="CU41" t="inlineStr"/>
+      <c r="CV41" t="inlineStr"/>
+      <c r="CW41" t="inlineStr"/>
+      <c r="CX41" t="inlineStr"/>
+      <c r="CY41" t="inlineStr"/>
+      <c r="CZ41" t="inlineStr"/>
+      <c r="DA41" t="inlineStr"/>
+      <c r="DB41" t="inlineStr"/>
+      <c r="DC41" t="inlineStr"/>
+      <c r="DD41" t="inlineStr"/>
+      <c r="DE41" t="inlineStr"/>
+      <c r="DF41" t="inlineStr"/>
+      <c r="DG41" t="inlineStr"/>
+      <c r="DH41" t="inlineStr"/>
+      <c r="DI41" t="inlineStr"/>
+      <c r="DJ41" t="inlineStr"/>
+      <c r="DK41" t="inlineStr"/>
+      <c r="DL41" t="inlineStr"/>
+      <c r="DM41" t="inlineStr"/>
+      <c r="DN41" t="inlineStr"/>
+      <c r="DO41" t="inlineStr"/>
+      <c r="DP41" t="inlineStr"/>
+      <c r="DQ41" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
